--- a/kbs/kb_min.xlsx
+++ b/kbs/kb_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="375" windowWidth="23250" windowHeight="12090" tabRatio="1000"/>
+    <workbookView xWindow="-105" yWindow="375" windowWidth="23250" windowHeight="12090" tabRatio="1000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="RNAs" sheetId="9" r:id="rId9"/>
     <sheet name="Proteins" sheetId="10" r:id="rId10"/>
     <sheet name="Complexes" sheetId="11" r:id="rId11"/>
-    <sheet name="Species properties" sheetId="12" r:id="rId12"/>
+    <sheet name="SpeciesType properties" sheetId="12" r:id="rId12"/>
     <sheet name="Concentrations" sheetId="13" r:id="rId13"/>
     <sheet name="Observables" sheetId="14" r:id="rId14"/>
     <sheet name="Reactions" sheetId="15" r:id="rId15"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="212">
   <si>
     <t>Id</t>
   </si>
@@ -382,27 +382,9 @@
     <t>Formation process</t>
   </si>
   <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Half life</t>
-  </si>
-  <si>
-    <t>Half life units</t>
-  </si>
-  <si>
-    <t>Domains</t>
-  </si>
-  <si>
-    <t>Prosthetic groups</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
-    <t>{"source": "Pfam", "xid": "PF00712.14", "label": "DNA_pol3_beta", "start_position": 1, "end_position": 120, "score": 51.4}, {"source": "Pfam", "xid": "PF03836.10", "label": "RasGAP_C", "start_position": 51, "end_position": 116, "score": 14.6}, {"source": "Pfam", "xid": "PF02767.11", "label": "DNA_pol3_beta_2", "start_position": 136, "end_position": 255, "score": 23.1}, {"source": "Pfam", "xid": "PF02768.10", "label": "DNA_pol3_beta_3", "start_position": 259, "end_position": 379, "score": 105.6}, {"source": "NCBI-CD", "xid": "cd00140", "label": "beta_clamp", "start_position": 23, "end_position": 380, "score": 224.312}, {"source": "NCBI-CD", "xid": "cl17512", "label": "beta_clamp superfamily", "start_position": 23, "end_position": 380, "score": 224.312}, {"source": "NCBI-CD", "xid": "smart00480", "label": "POL3Bc", "start_position": 23, "end_position": 377, "score": 316.842}</t>
-  </si>
-  <si>
     <t>EVI1111</t>
   </si>
   <si>
@@ -737,6 +719,12 @@
   </si>
   <si>
     <t>test_kb</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>structure</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1695,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1703,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1896,7 +1884,7 @@
         <v>93</v>
       </c>
       <c r="R2" s="125" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="S2" s="123" t="s">
         <v>41</v>
@@ -1996,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2007,98 +1995,119 @@
     <col min="1" max="1" width="20.7109375" style="65" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="65" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="65" customWidth="1"/>
-    <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="65" customWidth="1"/>
-    <col min="11" max="21" width="9.140625" style="65" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="65"/>
+    <col min="5" max="5" width="15.7109375" style="65" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="65" customWidth="1"/>
+    <col min="10" max="20" width="9.140625" style="65" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="129" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="129"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="129" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="129">
+        <v>4.8828698208797903</v>
+      </c>
+      <c r="E3" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="F3" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="129"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="129">
+        <v>992.98255190377824</v>
+      </c>
+      <c r="E4" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="107">
-        <v>4.8828698208797903</v>
-      </c>
-      <c r="D3" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="128">
-        <v>992.98255190377824</v>
-      </c>
-      <c r="D4" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128" t="s">
-        <v>104</v>
-      </c>
+      <c r="I4" s="129"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="108"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="129"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2125,13 +2134,13 @@
         <v>94</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>36</v>
@@ -2151,16 +2160,16 @@
         <v>69</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C2" s="99">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2168,16 +2177,16 @@
         <v>77</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C3" s="111">
         <v>2.2584973866611409E-2</v>
       </c>
       <c r="D3" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="111" t="s">
         <v>111</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2185,16 +2194,16 @@
         <v>90</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C4" s="132">
         <v>489.45</v>
       </c>
       <c r="D4" s="132" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E4" s="132" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F4" s="132"/>
       <c r="G4" s="132"/>
@@ -2229,10 +2238,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>9</v>
@@ -2290,25 +2299,25 @@
         <v>29</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>125</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>36</v>
@@ -2326,10 +2335,10 @@
     </row>
     <row r="2" spans="1:15 1029:1029" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="135" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B2" s="135" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="135" t="s">
@@ -2337,7 +2346,7 @@
       </c>
       <c r="E2" s="135"/>
       <c r="F2" s="135" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G2" s="135" t="b">
         <v>0</v>
@@ -2348,7 +2357,7 @@
       <c r="I2" s="135"/>
       <c r="J2" s="135"/>
       <c r="K2" s="135" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L2" s="135"/>
       <c r="M2" s="135"/>
@@ -2356,7 +2365,7 @@
         <v>72</v>
       </c>
       <c r="O2" s="135" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AMO2" s="135"/>
     </row>
@@ -2393,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>9</v>
@@ -2455,10 +2464,10 @@
         <v>54</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>36</v>
@@ -2475,17 +2484,17 @@
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C2" s="137"/>
       <c r="D2" s="137">
         <v>2</v>
       </c>
       <c r="E2" s="137" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2498,7 +2507,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2515,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>13</v>
@@ -2553,16 +2562,16 @@
         <v>53</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E2" s="94">
         <v>1</v>
       </c>
       <c r="F2" s="94" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
@@ -2570,7 +2579,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" s="101" t="s">
         <v>10</v>
@@ -2579,16 +2588,16 @@
         <v>87</v>
       </c>
       <c r="D3" s="101" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E3" s="101">
-        <v>992.98255190377824</v>
+        <v>992.98255190377802</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H3" s="100"/>
       <c r="I3" s="100"/>
@@ -2596,7 +2605,7 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B4" s="110" t="s">
         <v>10</v>
@@ -2605,26 +2614,26 @@
         <v>87</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E4" s="110">
         <v>489.45</v>
       </c>
       <c r="F4" s="110" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G4" s="110" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H4" s="109"/>
       <c r="I4" s="109"/>
       <c r="J4" s="109" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="112" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B5" s="113" t="s">
         <v>10</v>
@@ -2633,7 +2642,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="113" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E5" s="113">
         <v>5.5313109099319684</v>
@@ -2642,7 +2651,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="113" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
@@ -2650,7 +2659,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="126" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B6" s="127" t="s">
         <v>10</v>
@@ -2665,10 +2674,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H6" s="126"/>
       <c r="I6" s="126"/>
@@ -2676,7 +2685,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="126" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B7" s="127" t="s">
         <v>10</v>
@@ -2685,26 +2694,26 @@
         <v>67</v>
       </c>
       <c r="D7" s="127" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E7" s="127">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H7" s="126"/>
       <c r="I7" s="126"/>
       <c r="J7" s="126" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B8" s="131" t="s">
         <v>10</v>
@@ -2713,16 +2722,16 @@
         <v>74</v>
       </c>
       <c r="D8" s="131" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E8" s="131">
         <v>4.8828698208797903</v>
       </c>
       <c r="F8" s="131" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G8" s="131" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H8" s="130"/>
       <c r="I8" s="130"/>
@@ -2730,7 +2739,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="133" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B9" s="134" t="s">
         <v>10</v>
@@ -2739,16 +2748,16 @@
         <v>74</v>
       </c>
       <c r="D9" s="134" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E9" s="134">
         <v>2.2584973866611409E-2</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G9" s="134" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H9" s="133"/>
       <c r="I9" s="133"/>
@@ -2788,31 +2797,31 @@
         <v>94</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>160</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>13</v>
@@ -2826,25 +2835,25 @@
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="138" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B2" s="138"/>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
       <c r="E2" s="138" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F2" s="140" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G2" s="140" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H2" s="140">
         <v>37</v>
       </c>
       <c r="I2" s="139" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J2" s="138"/>
       <c r="K2" s="138"/>
@@ -2855,25 +2864,25 @@
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="138" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B3" s="138"/>
       <c r="C3" s="138"/>
       <c r="D3" s="138"/>
       <c r="E3" s="138" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F3" s="140" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G3" s="140" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H3" s="140">
         <v>37</v>
       </c>
       <c r="I3" s="140" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J3" s="138"/>
       <c r="K3" s="138"/>
@@ -2881,50 +2890,50 @@
         <v>41</v>
       </c>
       <c r="M3" s="138" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="138" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B4" s="138"/>
       <c r="C4" s="138"/>
       <c r="D4" s="138"/>
       <c r="E4" s="138" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F4" s="140" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G4" s="140" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H4" s="140">
         <v>37</v>
       </c>
       <c r="I4" s="140" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J4" s="138"/>
       <c r="K4" s="138"/>
       <c r="L4" s="138" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M4" s="138"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="138" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B5" s="138"/>
       <c r="C5" s="138"/>
       <c r="D5" s="138"/>
       <c r="E5" s="138" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F5" s="140" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -2932,22 +2941,22 @@
       <c r="J5" s="138"/>
       <c r="K5" s="138"/>
       <c r="L5" s="138" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M5" s="138"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="141" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B6" s="141"/>
       <c r="C6" s="141"/>
       <c r="D6" s="141"/>
       <c r="E6" s="141" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F6" s="142" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G6" s="141"/>
       <c r="H6" s="141"/>
@@ -2955,36 +2964,36 @@
       <c r="J6" s="141"/>
       <c r="K6" s="141"/>
       <c r="L6" s="141" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M6" s="141"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="143" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B7" s="143"/>
       <c r="C7" s="143"/>
       <c r="D7" s="143"/>
       <c r="E7" s="143" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F7" s="145" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G7" s="145" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H7" s="144">
         <v>37</v>
       </c>
       <c r="I7" s="145" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J7" s="143"/>
       <c r="K7" s="143"/>
       <c r="L7" s="143" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3026,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3039,7 +3048,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3081,25 +3090,25 @@
         <v>29</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>177</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>13</v>
@@ -3110,22 +3119,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C2" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>184</v>
-      </c>
       <c r="E2" s="92" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G2" s="92">
         <v>326</v>
@@ -3134,13 +3143,13 @@
         <v>5957</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J2" s="92">
         <v>2009</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3148,19 +3157,19 @@
         <v>72</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F3" s="91" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G3" s="91">
         <v>231</v>
@@ -3169,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="91" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J3" s="91">
         <v>1990</v>
       </c>
       <c r="K3" s="91" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3183,13 +3192,13 @@
         <v>41</v>
       </c>
       <c r="B4" s="136" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C4" s="136" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="136" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E4" s="136"/>
       <c r="F4" s="136"/>
@@ -3203,22 +3212,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="146" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B5" s="146" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C5" s="146" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D5" s="146" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E5" s="146" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F5" s="146" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G5" s="146">
         <v>5</v>
@@ -3227,33 +3236,33 @@
         <v>12</v>
       </c>
       <c r="I5" s="146" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J5" s="146">
         <v>2006</v>
       </c>
       <c r="K5" s="146" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="147" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B6" s="147" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C6" s="147" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D6" s="147" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E6" s="147" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F6" s="147" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G6" s="147">
         <v>7</v>
@@ -3266,24 +3275,24 @@
         <v>2011</v>
       </c>
       <c r="K6" s="147" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="148" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B7" s="148" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C7" s="148" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="148" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E7" s="148" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F7" s="148"/>
       <c r="G7" s="148"/>
@@ -3296,19 +3305,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="149" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B8" s="149" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C8" s="149" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="149" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E8" s="149" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F8" s="149"/>
       <c r="G8" s="149"/>
@@ -3408,7 +3417,7 @@
   <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/kbs/kb_min.xlsx
+++ b/kbs/kb_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="375" windowWidth="23250" windowHeight="12090" tabRatio="1000" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="435" windowWidth="23250" windowHeight="12030" tabRatio="1000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$K$1</definedName>
@@ -42,7 +42,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$N$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$L$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$T$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">Reactions!$A$1:$P$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
@@ -50,7 +50,7 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$N$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$L$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$T$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="14">Reactions!$A$1:$P$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="219">
   <si>
     <t>Id</t>
   </si>
@@ -331,21 +331,9 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>Translation rate</t>
-  </si>
-  <si>
     <t>Is methionine cleaved</t>
   </si>
   <si>
-    <t>Signal sequence type</t>
-  </si>
-  <si>
-    <t>Signal sequence location</t>
-  </si>
-  <si>
-    <t>Signal sequence length</t>
-  </si>
-  <si>
     <t>Dna footprint binding</t>
   </si>
   <si>
@@ -358,18 +346,12 @@
     <t>uncategorized</t>
   </si>
   <si>
-    <t>props_ProtMon_MPN001</t>
-  </si>
-  <si>
     <t>conc_ProtMon_MPN001_c</t>
   </si>
   <si>
     <t>1/s/mRNA</t>
   </si>
   <si>
-    <t>ssDNA</t>
-  </si>
-  <si>
     <t>EVI1113, EVI1114</t>
   </si>
   <si>
@@ -725,6 +707,45 @@
   </si>
   <si>
     <t>structure</t>
+  </si>
+  <si>
+    <t>Value type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>localization</t>
+  </si>
+  <si>
+    <t>is methionine cleaved?</t>
+  </si>
+  <si>
+    <t>translation rate</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>prop_ProtMon_MPN001_localization</t>
+  </si>
+  <si>
+    <t>prop_ProtMon_MPN001_methionine_cleaved</t>
+  </si>
+  <si>
+    <t>prop_ProtMon_MPN001_translation_rate</t>
+  </si>
+  <si>
+    <t>prop_ProtMon_MPN001_half_life</t>
+  </si>
+  <si>
+    <t>prop_ProtMon_MPN001_half_life, prop_ProtMon_MPN001_localization, prop_ProtMon_MPN001_methionine_cleaved, prop_ProtMon_MPN001_translation_rate</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1177,15 +1198,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="16" applyFont="1"/>
@@ -1252,16 +1264,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="52" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,34 +1280,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="47" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1335,6 +1318,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1683,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,153 +1748,1109 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMR2"/>
+  <dimension ref="A1:AMI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="65" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="65" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="124" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="124" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="65" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="67" customWidth="1"/>
-    <col min="11" max="11" width="9" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="3" customWidth="1"/>
-    <col min="16" max="17" width="20.7109375" style="65" customWidth="1"/>
-    <col min="18" max="18" width="64.85546875" style="70" customWidth="1"/>
-    <col min="19" max="20" width="20.7109375" style="65" customWidth="1"/>
-    <col min="21" max="1031" width="58.5703125" style="65" customWidth="1"/>
-    <col min="1032" max="1035" width="58.5703125" style="70" customWidth="1"/>
-    <col min="1036" max="16384" width="58.5703125" style="70"/>
+    <col min="4" max="5" width="15.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="67" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" style="65" customWidth="1"/>
+    <col min="12" max="1022" width="58.5703125" style="65" customWidth="1"/>
+    <col min="1023" max="1026" width="58.5703125" style="67" customWidth="1"/>
+    <col min="1027" max="16384" width="58.5703125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20 1032:1032" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:1023" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="37" t="s">
         <v>54</v>
       </c>
       <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="37" t="s">
-        <v>78</v>
-      </c>
       <c r="H1" s="37" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMI1" s="131"/>
+    </row>
+    <row r="2" spans="1:1023" s="135" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="B2" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="E2" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="P1" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMR1" s="68"/>
-    </row>
-    <row r="2" spans="1:20 1032:1032" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="H2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="117" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="116">
-        <v>5.5313109099319684</v>
-      </c>
-      <c r="J2" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="120" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="123">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="S2" s="123" t="s">
+      <c r="I2" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="124"/>
-      <c r="AMR2" s="114"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2"/>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+      <c r="CT2" s="2"/>
+      <c r="CU2" s="2"/>
+      <c r="CV2" s="2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="2"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="2"/>
+      <c r="DE2" s="2"/>
+      <c r="DF2" s="2"/>
+      <c r="DG2" s="2"/>
+      <c r="DH2" s="2"/>
+      <c r="DI2" s="2"/>
+      <c r="DJ2" s="2"/>
+      <c r="DK2" s="2"/>
+      <c r="DL2" s="2"/>
+      <c r="DM2" s="2"/>
+      <c r="DN2" s="2"/>
+      <c r="DO2" s="2"/>
+      <c r="DP2" s="2"/>
+      <c r="DQ2" s="2"/>
+      <c r="DR2" s="2"/>
+      <c r="DS2" s="2"/>
+      <c r="DT2" s="2"/>
+      <c r="DU2" s="2"/>
+      <c r="DV2" s="2"/>
+      <c r="DW2" s="2"/>
+      <c r="DX2" s="2"/>
+      <c r="DY2" s="2"/>
+      <c r="DZ2" s="2"/>
+      <c r="EA2" s="2"/>
+      <c r="EB2" s="2"/>
+      <c r="EC2" s="2"/>
+      <c r="ED2" s="2"/>
+      <c r="EE2" s="2"/>
+      <c r="EF2" s="2"/>
+      <c r="EG2" s="2"/>
+      <c r="EH2" s="2"/>
+      <c r="EI2" s="2"/>
+      <c r="EJ2" s="2"/>
+      <c r="EK2" s="2"/>
+      <c r="EL2" s="2"/>
+      <c r="EM2" s="2"/>
+      <c r="EN2" s="2"/>
+      <c r="EO2" s="2"/>
+      <c r="EP2" s="2"/>
+      <c r="EQ2" s="2"/>
+      <c r="ER2" s="2"/>
+      <c r="ES2" s="2"/>
+      <c r="ET2" s="2"/>
+      <c r="EU2" s="2"/>
+      <c r="EV2" s="2"/>
+      <c r="EW2" s="2"/>
+      <c r="EX2" s="2"/>
+      <c r="EY2" s="2"/>
+      <c r="EZ2" s="2"/>
+      <c r="FA2" s="2"/>
+      <c r="FB2" s="2"/>
+      <c r="FC2" s="2"/>
+      <c r="FD2" s="2"/>
+      <c r="FE2" s="2"/>
+      <c r="FF2" s="2"/>
+      <c r="FG2" s="2"/>
+      <c r="FH2" s="2"/>
+      <c r="FI2" s="2"/>
+      <c r="FJ2" s="2"/>
+      <c r="FK2" s="2"/>
+      <c r="FL2" s="2"/>
+      <c r="FM2" s="2"/>
+      <c r="FN2" s="2"/>
+      <c r="FO2" s="2"/>
+      <c r="FP2" s="2"/>
+      <c r="FQ2" s="2"/>
+      <c r="FR2" s="2"/>
+      <c r="FS2" s="2"/>
+      <c r="FT2" s="2"/>
+      <c r="FU2" s="2"/>
+      <c r="FV2" s="2"/>
+      <c r="FW2" s="2"/>
+      <c r="FX2" s="2"/>
+      <c r="FY2" s="2"/>
+      <c r="FZ2" s="2"/>
+      <c r="GA2" s="2"/>
+      <c r="GB2" s="2"/>
+      <c r="GC2" s="2"/>
+      <c r="GD2" s="2"/>
+      <c r="GE2" s="2"/>
+      <c r="GF2" s="2"/>
+      <c r="GG2" s="2"/>
+      <c r="GH2" s="2"/>
+      <c r="GI2" s="2"/>
+      <c r="GJ2" s="2"/>
+      <c r="GK2" s="2"/>
+      <c r="GL2" s="2"/>
+      <c r="GM2" s="2"/>
+      <c r="GN2" s="2"/>
+      <c r="GO2" s="2"/>
+      <c r="GP2" s="2"/>
+      <c r="GQ2" s="2"/>
+      <c r="GR2" s="2"/>
+      <c r="GS2" s="2"/>
+      <c r="GT2" s="2"/>
+      <c r="GU2" s="2"/>
+      <c r="GV2" s="2"/>
+      <c r="GW2" s="2"/>
+      <c r="GX2" s="2"/>
+      <c r="GY2" s="2"/>
+      <c r="GZ2" s="2"/>
+      <c r="HA2" s="2"/>
+      <c r="HB2" s="2"/>
+      <c r="HC2" s="2"/>
+      <c r="HD2" s="2"/>
+      <c r="HE2" s="2"/>
+      <c r="HF2" s="2"/>
+      <c r="HG2" s="2"/>
+      <c r="HH2" s="2"/>
+      <c r="HI2" s="2"/>
+      <c r="HJ2" s="2"/>
+      <c r="HK2" s="2"/>
+      <c r="HL2" s="2"/>
+      <c r="HM2" s="2"/>
+      <c r="HN2" s="2"/>
+      <c r="HO2" s="2"/>
+      <c r="HP2" s="2"/>
+      <c r="HQ2" s="2"/>
+      <c r="HR2" s="2"/>
+      <c r="HS2" s="2"/>
+      <c r="HT2" s="2"/>
+      <c r="HU2" s="2"/>
+      <c r="HV2" s="2"/>
+      <c r="HW2" s="2"/>
+      <c r="HX2" s="2"/>
+      <c r="HY2" s="2"/>
+      <c r="HZ2" s="2"/>
+      <c r="IA2" s="2"/>
+      <c r="IB2" s="2"/>
+      <c r="IC2" s="2"/>
+      <c r="ID2" s="2"/>
+      <c r="IE2" s="2"/>
+      <c r="IF2" s="2"/>
+      <c r="IG2" s="2"/>
+      <c r="IH2" s="2"/>
+      <c r="II2" s="2"/>
+      <c r="IJ2" s="2"/>
+      <c r="IK2" s="2"/>
+      <c r="IL2" s="2"/>
+      <c r="IM2" s="2"/>
+      <c r="IN2" s="2"/>
+      <c r="IO2" s="2"/>
+      <c r="IP2" s="2"/>
+      <c r="IQ2" s="2"/>
+      <c r="IR2" s="2"/>
+      <c r="IS2" s="2"/>
+      <c r="IT2" s="2"/>
+      <c r="IU2" s="2"/>
+      <c r="IV2" s="2"/>
+      <c r="IW2" s="2"/>
+      <c r="IX2" s="2"/>
+      <c r="IY2" s="2"/>
+      <c r="IZ2" s="2"/>
+      <c r="JA2" s="2"/>
+      <c r="JB2" s="2"/>
+      <c r="JC2" s="2"/>
+      <c r="JD2" s="2"/>
+      <c r="JE2" s="2"/>
+      <c r="JF2" s="2"/>
+      <c r="JG2" s="2"/>
+      <c r="JH2" s="2"/>
+      <c r="JI2" s="2"/>
+      <c r="JJ2" s="2"/>
+      <c r="JK2" s="2"/>
+      <c r="JL2" s="2"/>
+      <c r="JM2" s="2"/>
+      <c r="JN2" s="2"/>
+      <c r="JO2" s="2"/>
+      <c r="JP2" s="2"/>
+      <c r="JQ2" s="2"/>
+      <c r="JR2" s="2"/>
+      <c r="JS2" s="2"/>
+      <c r="JT2" s="2"/>
+      <c r="JU2" s="2"/>
+      <c r="JV2" s="2"/>
+      <c r="JW2" s="2"/>
+      <c r="JX2" s="2"/>
+      <c r="JY2" s="2"/>
+      <c r="JZ2" s="2"/>
+      <c r="KA2" s="2"/>
+      <c r="KB2" s="2"/>
+      <c r="KC2" s="2"/>
+      <c r="KD2" s="2"/>
+      <c r="KE2" s="2"/>
+      <c r="KF2" s="2"/>
+      <c r="KG2" s="2"/>
+      <c r="KH2" s="2"/>
+      <c r="KI2" s="2"/>
+      <c r="KJ2" s="2"/>
+      <c r="KK2" s="2"/>
+      <c r="KL2" s="2"/>
+      <c r="KM2" s="2"/>
+      <c r="KN2" s="2"/>
+      <c r="KO2" s="2"/>
+      <c r="KP2" s="2"/>
+      <c r="KQ2" s="2"/>
+      <c r="KR2" s="2"/>
+      <c r="KS2" s="2"/>
+      <c r="KT2" s="2"/>
+      <c r="KU2" s="2"/>
+      <c r="KV2" s="2"/>
+      <c r="KW2" s="2"/>
+      <c r="KX2" s="2"/>
+      <c r="KY2" s="2"/>
+      <c r="KZ2" s="2"/>
+      <c r="LA2" s="2"/>
+      <c r="LB2" s="2"/>
+      <c r="LC2" s="2"/>
+      <c r="LD2" s="2"/>
+      <c r="LE2" s="2"/>
+      <c r="LF2" s="2"/>
+      <c r="LG2" s="2"/>
+      <c r="LH2" s="2"/>
+      <c r="LI2" s="2"/>
+      <c r="LJ2" s="2"/>
+      <c r="LK2" s="2"/>
+      <c r="LL2" s="2"/>
+      <c r="LM2" s="2"/>
+      <c r="LN2" s="2"/>
+      <c r="LO2" s="2"/>
+      <c r="LP2" s="2"/>
+      <c r="LQ2" s="2"/>
+      <c r="LR2" s="2"/>
+      <c r="LS2" s="2"/>
+      <c r="LT2" s="2"/>
+      <c r="LU2" s="2"/>
+      <c r="LV2" s="2"/>
+      <c r="LW2" s="2"/>
+      <c r="LX2" s="2"/>
+      <c r="LY2" s="2"/>
+      <c r="LZ2" s="2"/>
+      <c r="MA2" s="2"/>
+      <c r="MB2" s="2"/>
+      <c r="MC2" s="2"/>
+      <c r="MD2" s="2"/>
+      <c r="ME2" s="2"/>
+      <c r="MF2" s="2"/>
+      <c r="MG2" s="2"/>
+      <c r="MH2" s="2"/>
+      <c r="MI2" s="2"/>
+      <c r="MJ2" s="2"/>
+      <c r="MK2" s="2"/>
+      <c r="ML2" s="2"/>
+      <c r="MM2" s="2"/>
+      <c r="MN2" s="2"/>
+      <c r="MO2" s="2"/>
+      <c r="MP2" s="2"/>
+      <c r="MQ2" s="2"/>
+      <c r="MR2" s="2"/>
+      <c r="MS2" s="2"/>
+      <c r="MT2" s="2"/>
+      <c r="MU2" s="2"/>
+      <c r="MV2" s="2"/>
+      <c r="MW2" s="2"/>
+      <c r="MX2" s="2"/>
+      <c r="MY2" s="2"/>
+      <c r="MZ2" s="2"/>
+      <c r="NA2" s="2"/>
+      <c r="NB2" s="2"/>
+      <c r="NC2" s="2"/>
+      <c r="ND2" s="2"/>
+      <c r="NE2" s="2"/>
+      <c r="NF2" s="2"/>
+      <c r="NG2" s="2"/>
+      <c r="NH2" s="2"/>
+      <c r="NI2" s="2"/>
+      <c r="NJ2" s="2"/>
+      <c r="NK2" s="2"/>
+      <c r="NL2" s="2"/>
+      <c r="NM2" s="2"/>
+      <c r="NN2" s="2"/>
+      <c r="NO2" s="2"/>
+      <c r="NP2" s="2"/>
+      <c r="NQ2" s="2"/>
+      <c r="NR2" s="2"/>
+      <c r="NS2" s="2"/>
+      <c r="NT2" s="2"/>
+      <c r="NU2" s="2"/>
+      <c r="NV2" s="2"/>
+      <c r="NW2" s="2"/>
+      <c r="NX2" s="2"/>
+      <c r="NY2" s="2"/>
+      <c r="NZ2" s="2"/>
+      <c r="OA2" s="2"/>
+      <c r="OB2" s="2"/>
+      <c r="OC2" s="2"/>
+      <c r="OD2" s="2"/>
+      <c r="OE2" s="2"/>
+      <c r="OF2" s="2"/>
+      <c r="OG2" s="2"/>
+      <c r="OH2" s="2"/>
+      <c r="OI2" s="2"/>
+      <c r="OJ2" s="2"/>
+      <c r="OK2" s="2"/>
+      <c r="OL2" s="2"/>
+      <c r="OM2" s="2"/>
+      <c r="ON2" s="2"/>
+      <c r="OO2" s="2"/>
+      <c r="OP2" s="2"/>
+      <c r="OQ2" s="2"/>
+      <c r="OR2" s="2"/>
+      <c r="OS2" s="2"/>
+      <c r="OT2" s="2"/>
+      <c r="OU2" s="2"/>
+      <c r="OV2" s="2"/>
+      <c r="OW2" s="2"/>
+      <c r="OX2" s="2"/>
+      <c r="OY2" s="2"/>
+      <c r="OZ2" s="2"/>
+      <c r="PA2" s="2"/>
+      <c r="PB2" s="2"/>
+      <c r="PC2" s="2"/>
+      <c r="PD2" s="2"/>
+      <c r="PE2" s="2"/>
+      <c r="PF2" s="2"/>
+      <c r="PG2" s="2"/>
+      <c r="PH2" s="2"/>
+      <c r="PI2" s="2"/>
+      <c r="PJ2" s="2"/>
+      <c r="PK2" s="2"/>
+      <c r="PL2" s="2"/>
+      <c r="PM2" s="2"/>
+      <c r="PN2" s="2"/>
+      <c r="PO2" s="2"/>
+      <c r="PP2" s="2"/>
+      <c r="PQ2" s="2"/>
+      <c r="PR2" s="2"/>
+      <c r="PS2" s="2"/>
+      <c r="PT2" s="2"/>
+      <c r="PU2" s="2"/>
+      <c r="PV2" s="2"/>
+      <c r="PW2" s="2"/>
+      <c r="PX2" s="2"/>
+      <c r="PY2" s="2"/>
+      <c r="PZ2" s="2"/>
+      <c r="QA2" s="2"/>
+      <c r="QB2" s="2"/>
+      <c r="QC2" s="2"/>
+      <c r="QD2" s="2"/>
+      <c r="QE2" s="2"/>
+      <c r="QF2" s="2"/>
+      <c r="QG2" s="2"/>
+      <c r="QH2" s="2"/>
+      <c r="QI2" s="2"/>
+      <c r="QJ2" s="2"/>
+      <c r="QK2" s="2"/>
+      <c r="QL2" s="2"/>
+      <c r="QM2" s="2"/>
+      <c r="QN2" s="2"/>
+      <c r="QO2" s="2"/>
+      <c r="QP2" s="2"/>
+      <c r="QQ2" s="2"/>
+      <c r="QR2" s="2"/>
+      <c r="QS2" s="2"/>
+      <c r="QT2" s="2"/>
+      <c r="QU2" s="2"/>
+      <c r="QV2" s="2"/>
+      <c r="QW2" s="2"/>
+      <c r="QX2" s="2"/>
+      <c r="QY2" s="2"/>
+      <c r="QZ2" s="2"/>
+      <c r="RA2" s="2"/>
+      <c r="RB2" s="2"/>
+      <c r="RC2" s="2"/>
+      <c r="RD2" s="2"/>
+      <c r="RE2" s="2"/>
+      <c r="RF2" s="2"/>
+      <c r="RG2" s="2"/>
+      <c r="RH2" s="2"/>
+      <c r="RI2" s="2"/>
+      <c r="RJ2" s="2"/>
+      <c r="RK2" s="2"/>
+      <c r="RL2" s="2"/>
+      <c r="RM2" s="2"/>
+      <c r="RN2" s="2"/>
+      <c r="RO2" s="2"/>
+      <c r="RP2" s="2"/>
+      <c r="RQ2" s="2"/>
+      <c r="RR2" s="2"/>
+      <c r="RS2" s="2"/>
+      <c r="RT2" s="2"/>
+      <c r="RU2" s="2"/>
+      <c r="RV2" s="2"/>
+      <c r="RW2" s="2"/>
+      <c r="RX2" s="2"/>
+      <c r="RY2" s="2"/>
+      <c r="RZ2" s="2"/>
+      <c r="SA2" s="2"/>
+      <c r="SB2" s="2"/>
+      <c r="SC2" s="2"/>
+      <c r="SD2" s="2"/>
+      <c r="SE2" s="2"/>
+      <c r="SF2" s="2"/>
+      <c r="SG2" s="2"/>
+      <c r="SH2" s="2"/>
+      <c r="SI2" s="2"/>
+      <c r="SJ2" s="2"/>
+      <c r="SK2" s="2"/>
+      <c r="SL2" s="2"/>
+      <c r="SM2" s="2"/>
+      <c r="SN2" s="2"/>
+      <c r="SO2" s="2"/>
+      <c r="SP2" s="2"/>
+      <c r="SQ2" s="2"/>
+      <c r="SR2" s="2"/>
+      <c r="SS2" s="2"/>
+      <c r="ST2" s="2"/>
+      <c r="SU2" s="2"/>
+      <c r="SV2" s="2"/>
+      <c r="SW2" s="2"/>
+      <c r="SX2" s="2"/>
+      <c r="SY2" s="2"/>
+      <c r="SZ2" s="2"/>
+      <c r="TA2" s="2"/>
+      <c r="TB2" s="2"/>
+      <c r="TC2" s="2"/>
+      <c r="TD2" s="2"/>
+      <c r="TE2" s="2"/>
+      <c r="TF2" s="2"/>
+      <c r="TG2" s="2"/>
+      <c r="TH2" s="2"/>
+      <c r="TI2" s="2"/>
+      <c r="TJ2" s="2"/>
+      <c r="TK2" s="2"/>
+      <c r="TL2" s="2"/>
+      <c r="TM2" s="2"/>
+      <c r="TN2" s="2"/>
+      <c r="TO2" s="2"/>
+      <c r="TP2" s="2"/>
+      <c r="TQ2" s="2"/>
+      <c r="TR2" s="2"/>
+      <c r="TS2" s="2"/>
+      <c r="TT2" s="2"/>
+      <c r="TU2" s="2"/>
+      <c r="TV2" s="2"/>
+      <c r="TW2" s="2"/>
+      <c r="TX2" s="2"/>
+      <c r="TY2" s="2"/>
+      <c r="TZ2" s="2"/>
+      <c r="UA2" s="2"/>
+      <c r="UB2" s="2"/>
+      <c r="UC2" s="2"/>
+      <c r="UD2" s="2"/>
+      <c r="UE2" s="2"/>
+      <c r="UF2" s="2"/>
+      <c r="UG2" s="2"/>
+      <c r="UH2" s="2"/>
+      <c r="UI2" s="2"/>
+      <c r="UJ2" s="2"/>
+      <c r="UK2" s="2"/>
+      <c r="UL2" s="2"/>
+      <c r="UM2" s="2"/>
+      <c r="UN2" s="2"/>
+      <c r="UO2" s="2"/>
+      <c r="UP2" s="2"/>
+      <c r="UQ2" s="2"/>
+      <c r="UR2" s="2"/>
+      <c r="US2" s="2"/>
+      <c r="UT2" s="2"/>
+      <c r="UU2" s="2"/>
+      <c r="UV2" s="2"/>
+      <c r="UW2" s="2"/>
+      <c r="UX2" s="2"/>
+      <c r="UY2" s="2"/>
+      <c r="UZ2" s="2"/>
+      <c r="VA2" s="2"/>
+      <c r="VB2" s="2"/>
+      <c r="VC2" s="2"/>
+      <c r="VD2" s="2"/>
+      <c r="VE2" s="2"/>
+      <c r="VF2" s="2"/>
+      <c r="VG2" s="2"/>
+      <c r="VH2" s="2"/>
+      <c r="VI2" s="2"/>
+      <c r="VJ2" s="2"/>
+      <c r="VK2" s="2"/>
+      <c r="VL2" s="2"/>
+      <c r="VM2" s="2"/>
+      <c r="VN2" s="2"/>
+      <c r="VO2" s="2"/>
+      <c r="VP2" s="2"/>
+      <c r="VQ2" s="2"/>
+      <c r="VR2" s="2"/>
+      <c r="VS2" s="2"/>
+      <c r="VT2" s="2"/>
+      <c r="VU2" s="2"/>
+      <c r="VV2" s="2"/>
+      <c r="VW2" s="2"/>
+      <c r="VX2" s="2"/>
+      <c r="VY2" s="2"/>
+      <c r="VZ2" s="2"/>
+      <c r="WA2" s="2"/>
+      <c r="WB2" s="2"/>
+      <c r="WC2" s="2"/>
+      <c r="WD2" s="2"/>
+      <c r="WE2" s="2"/>
+      <c r="WF2" s="2"/>
+      <c r="WG2" s="2"/>
+      <c r="WH2" s="2"/>
+      <c r="WI2" s="2"/>
+      <c r="WJ2" s="2"/>
+      <c r="WK2" s="2"/>
+      <c r="WL2" s="2"/>
+      <c r="WM2" s="2"/>
+      <c r="WN2" s="2"/>
+      <c r="WO2" s="2"/>
+      <c r="WP2" s="2"/>
+      <c r="WQ2" s="2"/>
+      <c r="WR2" s="2"/>
+      <c r="WS2" s="2"/>
+      <c r="WT2" s="2"/>
+      <c r="WU2" s="2"/>
+      <c r="WV2" s="2"/>
+      <c r="WW2" s="2"/>
+      <c r="WX2" s="2"/>
+      <c r="WY2" s="2"/>
+      <c r="WZ2" s="2"/>
+      <c r="XA2" s="2"/>
+      <c r="XB2" s="2"/>
+      <c r="XC2" s="2"/>
+      <c r="XD2" s="2"/>
+      <c r="XE2" s="2"/>
+      <c r="XF2" s="2"/>
+      <c r="XG2" s="2"/>
+      <c r="XH2" s="2"/>
+      <c r="XI2" s="2"/>
+      <c r="XJ2" s="2"/>
+      <c r="XK2" s="2"/>
+      <c r="XL2" s="2"/>
+      <c r="XM2" s="2"/>
+      <c r="XN2" s="2"/>
+      <c r="XO2" s="2"/>
+      <c r="XP2" s="2"/>
+      <c r="XQ2" s="2"/>
+      <c r="XR2" s="2"/>
+      <c r="XS2" s="2"/>
+      <c r="XT2" s="2"/>
+      <c r="XU2" s="2"/>
+      <c r="XV2" s="2"/>
+      <c r="XW2" s="2"/>
+      <c r="XX2" s="2"/>
+      <c r="XY2" s="2"/>
+      <c r="XZ2" s="2"/>
+      <c r="YA2" s="2"/>
+      <c r="YB2" s="2"/>
+      <c r="YC2" s="2"/>
+      <c r="YD2" s="2"/>
+      <c r="YE2" s="2"/>
+      <c r="YF2" s="2"/>
+      <c r="YG2" s="2"/>
+      <c r="YH2" s="2"/>
+      <c r="YI2" s="2"/>
+      <c r="YJ2" s="2"/>
+      <c r="YK2" s="2"/>
+      <c r="YL2" s="2"/>
+      <c r="YM2" s="2"/>
+      <c r="YN2" s="2"/>
+      <c r="YO2" s="2"/>
+      <c r="YP2" s="2"/>
+      <c r="YQ2" s="2"/>
+      <c r="YR2" s="2"/>
+      <c r="YS2" s="2"/>
+      <c r="YT2" s="2"/>
+      <c r="YU2" s="2"/>
+      <c r="YV2" s="2"/>
+      <c r="YW2" s="2"/>
+      <c r="YX2" s="2"/>
+      <c r="YY2" s="2"/>
+      <c r="YZ2" s="2"/>
+      <c r="ZA2" s="2"/>
+      <c r="ZB2" s="2"/>
+      <c r="ZC2" s="2"/>
+      <c r="ZD2" s="2"/>
+      <c r="ZE2" s="2"/>
+      <c r="ZF2" s="2"/>
+      <c r="ZG2" s="2"/>
+      <c r="ZH2" s="2"/>
+      <c r="ZI2" s="2"/>
+      <c r="ZJ2" s="2"/>
+      <c r="ZK2" s="2"/>
+      <c r="ZL2" s="2"/>
+      <c r="ZM2" s="2"/>
+      <c r="ZN2" s="2"/>
+      <c r="ZO2" s="2"/>
+      <c r="ZP2" s="2"/>
+      <c r="ZQ2" s="2"/>
+      <c r="ZR2" s="2"/>
+      <c r="ZS2" s="2"/>
+      <c r="ZT2" s="2"/>
+      <c r="ZU2" s="2"/>
+      <c r="ZV2" s="2"/>
+      <c r="ZW2" s="2"/>
+      <c r="ZX2" s="2"/>
+      <c r="ZY2" s="2"/>
+      <c r="ZZ2" s="2"/>
+      <c r="AAA2" s="2"/>
+      <c r="AAB2" s="2"/>
+      <c r="AAC2" s="2"/>
+      <c r="AAD2" s="2"/>
+      <c r="AAE2" s="2"/>
+      <c r="AAF2" s="2"/>
+      <c r="AAG2" s="2"/>
+      <c r="AAH2" s="2"/>
+      <c r="AAI2" s="2"/>
+      <c r="AAJ2" s="2"/>
+      <c r="AAK2" s="2"/>
+      <c r="AAL2" s="2"/>
+      <c r="AAM2" s="2"/>
+      <c r="AAN2" s="2"/>
+      <c r="AAO2" s="2"/>
+      <c r="AAP2" s="2"/>
+      <c r="AAQ2" s="2"/>
+      <c r="AAR2" s="2"/>
+      <c r="AAS2" s="2"/>
+      <c r="AAT2" s="2"/>
+      <c r="AAU2" s="2"/>
+      <c r="AAV2" s="2"/>
+      <c r="AAW2" s="2"/>
+      <c r="AAX2" s="2"/>
+      <c r="AAY2" s="2"/>
+      <c r="AAZ2" s="2"/>
+      <c r="ABA2" s="2"/>
+      <c r="ABB2" s="2"/>
+      <c r="ABC2" s="2"/>
+      <c r="ABD2" s="2"/>
+      <c r="ABE2" s="2"/>
+      <c r="ABF2" s="2"/>
+      <c r="ABG2" s="2"/>
+      <c r="ABH2" s="2"/>
+      <c r="ABI2" s="2"/>
+      <c r="ABJ2" s="2"/>
+      <c r="ABK2" s="2"/>
+      <c r="ABL2" s="2"/>
+      <c r="ABM2" s="2"/>
+      <c r="ABN2" s="2"/>
+      <c r="ABO2" s="2"/>
+      <c r="ABP2" s="2"/>
+      <c r="ABQ2" s="2"/>
+      <c r="ABR2" s="2"/>
+      <c r="ABS2" s="2"/>
+      <c r="ABT2" s="2"/>
+      <c r="ABU2" s="2"/>
+      <c r="ABV2" s="2"/>
+      <c r="ABW2" s="2"/>
+      <c r="ABX2" s="2"/>
+      <c r="ABY2" s="2"/>
+      <c r="ABZ2" s="2"/>
+      <c r="ACA2" s="2"/>
+      <c r="ACB2" s="2"/>
+      <c r="ACC2" s="2"/>
+      <c r="ACD2" s="2"/>
+      <c r="ACE2" s="2"/>
+      <c r="ACF2" s="2"/>
+      <c r="ACG2" s="2"/>
+      <c r="ACH2" s="2"/>
+      <c r="ACI2" s="2"/>
+      <c r="ACJ2" s="2"/>
+      <c r="ACK2" s="2"/>
+      <c r="ACL2" s="2"/>
+      <c r="ACM2" s="2"/>
+      <c r="ACN2" s="2"/>
+      <c r="ACO2" s="2"/>
+      <c r="ACP2" s="2"/>
+      <c r="ACQ2" s="2"/>
+      <c r="ACR2" s="2"/>
+      <c r="ACS2" s="2"/>
+      <c r="ACT2" s="2"/>
+      <c r="ACU2" s="2"/>
+      <c r="ACV2" s="2"/>
+      <c r="ACW2" s="2"/>
+      <c r="ACX2" s="2"/>
+      <c r="ACY2" s="2"/>
+      <c r="ACZ2" s="2"/>
+      <c r="ADA2" s="2"/>
+      <c r="ADB2" s="2"/>
+      <c r="ADC2" s="2"/>
+      <c r="ADD2" s="2"/>
+      <c r="ADE2" s="2"/>
+      <c r="ADF2" s="2"/>
+      <c r="ADG2" s="2"/>
+      <c r="ADH2" s="2"/>
+      <c r="ADI2" s="2"/>
+      <c r="ADJ2" s="2"/>
+      <c r="ADK2" s="2"/>
+      <c r="ADL2" s="2"/>
+      <c r="ADM2" s="2"/>
+      <c r="ADN2" s="2"/>
+      <c r="ADO2" s="2"/>
+      <c r="ADP2" s="2"/>
+      <c r="ADQ2" s="2"/>
+      <c r="ADR2" s="2"/>
+      <c r="ADS2" s="2"/>
+      <c r="ADT2" s="2"/>
+      <c r="ADU2" s="2"/>
+      <c r="ADV2" s="2"/>
+      <c r="ADW2" s="2"/>
+      <c r="ADX2" s="2"/>
+      <c r="ADY2" s="2"/>
+      <c r="ADZ2" s="2"/>
+      <c r="AEA2" s="2"/>
+      <c r="AEB2" s="2"/>
+      <c r="AEC2" s="2"/>
+      <c r="AED2" s="2"/>
+      <c r="AEE2" s="2"/>
+      <c r="AEF2" s="2"/>
+      <c r="AEG2" s="2"/>
+      <c r="AEH2" s="2"/>
+      <c r="AEI2" s="2"/>
+      <c r="AEJ2" s="2"/>
+      <c r="AEK2" s="2"/>
+      <c r="AEL2" s="2"/>
+      <c r="AEM2" s="2"/>
+      <c r="AEN2" s="2"/>
+      <c r="AEO2" s="2"/>
+      <c r="AEP2" s="2"/>
+      <c r="AEQ2" s="2"/>
+      <c r="AER2" s="2"/>
+      <c r="AES2" s="2"/>
+      <c r="AET2" s="2"/>
+      <c r="AEU2" s="2"/>
+      <c r="AEV2" s="2"/>
+      <c r="AEW2" s="2"/>
+      <c r="AEX2" s="2"/>
+      <c r="AEY2" s="2"/>
+      <c r="AEZ2" s="2"/>
+      <c r="AFA2" s="2"/>
+      <c r="AFB2" s="2"/>
+      <c r="AFC2" s="2"/>
+      <c r="AFD2" s="2"/>
+      <c r="AFE2" s="2"/>
+      <c r="AFF2" s="2"/>
+      <c r="AFG2" s="2"/>
+      <c r="AFH2" s="2"/>
+      <c r="AFI2" s="2"/>
+      <c r="AFJ2" s="2"/>
+      <c r="AFK2" s="2"/>
+      <c r="AFL2" s="2"/>
+      <c r="AFM2" s="2"/>
+      <c r="AFN2" s="2"/>
+      <c r="AFO2" s="2"/>
+      <c r="AFP2" s="2"/>
+      <c r="AFQ2" s="2"/>
+      <c r="AFR2" s="2"/>
+      <c r="AFS2" s="2"/>
+      <c r="AFT2" s="2"/>
+      <c r="AFU2" s="2"/>
+      <c r="AFV2" s="2"/>
+      <c r="AFW2" s="2"/>
+      <c r="AFX2" s="2"/>
+      <c r="AFY2" s="2"/>
+      <c r="AFZ2" s="2"/>
+      <c r="AGA2" s="2"/>
+      <c r="AGB2" s="2"/>
+      <c r="AGC2" s="2"/>
+      <c r="AGD2" s="2"/>
+      <c r="AGE2" s="2"/>
+      <c r="AGF2" s="2"/>
+      <c r="AGG2" s="2"/>
+      <c r="AGH2" s="2"/>
+      <c r="AGI2" s="2"/>
+      <c r="AGJ2" s="2"/>
+      <c r="AGK2" s="2"/>
+      <c r="AGL2" s="2"/>
+      <c r="AGM2" s="2"/>
+      <c r="AGN2" s="2"/>
+      <c r="AGO2" s="2"/>
+      <c r="AGP2" s="2"/>
+      <c r="AGQ2" s="2"/>
+      <c r="AGR2" s="2"/>
+      <c r="AGS2" s="2"/>
+      <c r="AGT2" s="2"/>
+      <c r="AGU2" s="2"/>
+      <c r="AGV2" s="2"/>
+      <c r="AGW2" s="2"/>
+      <c r="AGX2" s="2"/>
+      <c r="AGY2" s="2"/>
+      <c r="AGZ2" s="2"/>
+      <c r="AHA2" s="2"/>
+      <c r="AHB2" s="2"/>
+      <c r="AHC2" s="2"/>
+      <c r="AHD2" s="2"/>
+      <c r="AHE2" s="2"/>
+      <c r="AHF2" s="2"/>
+      <c r="AHG2" s="2"/>
+      <c r="AHH2" s="2"/>
+      <c r="AHI2" s="2"/>
+      <c r="AHJ2" s="2"/>
+      <c r="AHK2" s="2"/>
+      <c r="AHL2" s="2"/>
+      <c r="AHM2" s="2"/>
+      <c r="AHN2" s="2"/>
+      <c r="AHO2" s="2"/>
+      <c r="AHP2" s="2"/>
+      <c r="AHQ2" s="2"/>
+      <c r="AHR2" s="2"/>
+      <c r="AHS2" s="2"/>
+      <c r="AHT2" s="2"/>
+      <c r="AHU2" s="2"/>
+      <c r="AHV2" s="2"/>
+      <c r="AHW2" s="2"/>
+      <c r="AHX2" s="2"/>
+      <c r="AHY2" s="2"/>
+      <c r="AHZ2" s="2"/>
+      <c r="AIA2" s="2"/>
+      <c r="AIB2" s="2"/>
+      <c r="AIC2" s="2"/>
+      <c r="AID2" s="2"/>
+      <c r="AIE2" s="2"/>
+      <c r="AIF2" s="2"/>
+      <c r="AIG2" s="2"/>
+      <c r="AIH2" s="2"/>
+      <c r="AII2" s="2"/>
+      <c r="AIJ2" s="2"/>
+      <c r="AIK2" s="2"/>
+      <c r="AIL2" s="2"/>
+      <c r="AIM2" s="2"/>
+      <c r="AIN2" s="2"/>
+      <c r="AIO2" s="2"/>
+      <c r="AIP2" s="2"/>
+      <c r="AIQ2" s="2"/>
+      <c r="AIR2" s="2"/>
+      <c r="AIS2" s="2"/>
+      <c r="AIT2" s="2"/>
+      <c r="AIU2" s="2"/>
+      <c r="AIV2" s="2"/>
+      <c r="AIW2" s="2"/>
+      <c r="AIX2" s="2"/>
+      <c r="AIY2" s="2"/>
+      <c r="AIZ2" s="2"/>
+      <c r="AJA2" s="2"/>
+      <c r="AJB2" s="2"/>
+      <c r="AJC2" s="2"/>
+      <c r="AJD2" s="2"/>
+      <c r="AJE2" s="2"/>
+      <c r="AJF2" s="2"/>
+      <c r="AJG2" s="2"/>
+      <c r="AJH2" s="2"/>
+      <c r="AJI2" s="2"/>
+      <c r="AJJ2" s="2"/>
+      <c r="AJK2" s="2"/>
+      <c r="AJL2" s="2"/>
+      <c r="AJM2" s="2"/>
+      <c r="AJN2" s="2"/>
+      <c r="AJO2" s="2"/>
+      <c r="AJP2" s="2"/>
+      <c r="AJQ2" s="2"/>
+      <c r="AJR2" s="2"/>
+      <c r="AJS2" s="2"/>
+      <c r="AJT2" s="2"/>
+      <c r="AJU2" s="2"/>
+      <c r="AJV2" s="2"/>
+      <c r="AJW2" s="2"/>
+      <c r="AJX2" s="2"/>
+      <c r="AJY2" s="2"/>
+      <c r="AJZ2" s="2"/>
+      <c r="AKA2" s="2"/>
+      <c r="AKB2" s="2"/>
+      <c r="AKC2" s="2"/>
+      <c r="AKD2" s="2"/>
+      <c r="AKE2" s="2"/>
+      <c r="AKF2" s="2"/>
+      <c r="AKG2" s="2"/>
+      <c r="AKH2" s="2"/>
+      <c r="AKI2" s="2"/>
+      <c r="AKJ2" s="2"/>
+      <c r="AKK2" s="2"/>
+      <c r="AKL2" s="2"/>
+      <c r="AKM2" s="2"/>
+      <c r="AKN2" s="2"/>
+      <c r="AKO2" s="2"/>
+      <c r="AKP2" s="2"/>
+      <c r="AKQ2" s="2"/>
+      <c r="AKR2" s="2"/>
+      <c r="AKS2" s="2"/>
+      <c r="AKT2" s="2"/>
+      <c r="AKU2" s="2"/>
+      <c r="AKV2" s="2"/>
+      <c r="AKW2" s="2"/>
+      <c r="AKX2" s="2"/>
+      <c r="AKY2" s="2"/>
+      <c r="AKZ2" s="2"/>
+      <c r="ALA2" s="2"/>
+      <c r="ALB2" s="2"/>
+      <c r="ALC2" s="2"/>
+      <c r="ALD2" s="2"/>
+      <c r="ALE2" s="2"/>
+      <c r="ALF2" s="2"/>
+      <c r="ALG2" s="2"/>
+      <c r="ALH2" s="2"/>
+      <c r="ALI2" s="2"/>
+      <c r="ALJ2" s="2"/>
+      <c r="ALK2" s="2"/>
+      <c r="ALL2" s="2"/>
+      <c r="ALM2" s="2"/>
+      <c r="ALN2" s="2"/>
+      <c r="ALO2" s="2"/>
+      <c r="ALP2" s="2"/>
+      <c r="ALQ2" s="2"/>
+      <c r="ALR2" s="2"/>
+      <c r="ALS2" s="2"/>
+      <c r="ALT2" s="2"/>
+      <c r="ALU2" s="2"/>
+      <c r="ALV2" s="2"/>
+      <c r="ALW2" s="2"/>
+      <c r="ALX2" s="2"/>
+      <c r="ALY2" s="2"/>
+      <c r="ALZ2" s="2"/>
+      <c r="AMA2" s="2"/>
+      <c r="AMB2" s="2"/>
+      <c r="AMC2" s="2"/>
+      <c r="AMD2" s="2"/>
+      <c r="AME2" s="2"/>
+      <c r="AMF2" s="2"/>
+      <c r="AMG2" s="2"/>
+      <c r="AMH2" s="2"/>
+      <c r="AMI2" s="130"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -1931,7 +2888,7 @@
   <sheetData>
     <row r="1" spans="1:14 1025:1026" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>1</v>
@@ -1952,16 +2909,16 @@
         <v>78</v>
       </c>
       <c r="H1" s="54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L1" s="57" t="s">
         <v>13</v>
@@ -1984,126 +2941,284 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="65" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="65" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="65" customWidth="1"/>
-    <col min="10" max="20" width="9.140625" style="65" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="41.5703125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" style="124" customWidth="1"/>
+    <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="65" customWidth="1"/>
+    <col min="11" max="21" width="9.140625" style="65" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="109"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="124">
+        <v>4.8828698208797903</v>
+      </c>
+      <c r="E3" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="109"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="124">
+        <v>992.98255190377824</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="109"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="129" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="129" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="144" t="s">
+      <c r="D6" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="124" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="124" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="129"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="129" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="129">
-        <v>4.8828698208797903</v>
-      </c>
-      <c r="E3" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="129"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="129">
-        <v>992.98255190377824</v>
-      </c>
-      <c r="E4" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="129"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="108"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="129"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
+      <c r="D7" s="124">
+        <v>5</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="124"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="124"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="109"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="124"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="124"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="124"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="124"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="124"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="124"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="124"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="124"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="124"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="124"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="124"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="124"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="124"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="124"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="124"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="124"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="124"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="109"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,16 +3246,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>36</v>
@@ -2156,58 +3271,58 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="99">
+      <c r="B2" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="96">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="D2" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="99" t="s">
-        <v>109</v>
+      <c r="D2" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="111">
+      <c r="B3" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="104">
         <v>2.2584973866611409E-2</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="111" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="132">
+      <c r="A4" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="112">
         <v>489.45</v>
       </c>
-      <c r="D4" s="132" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
+      <c r="D4" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2238,10 +3353,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>9</v>
@@ -2299,25 +3414,25 @@
         <v>29</v>
       </c>
       <c r="E1" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>113</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>119</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>36</v>
@@ -2334,40 +3449,40 @@
       <c r="AMO1" s="40"/>
     </row>
     <row r="2" spans="1:15 1029:1029" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="135" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135" t="s">
+      <c r="A2" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="135" t="b">
+      <c r="E2" s="115"/>
+      <c r="F2" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="135" t="b">
+      <c r="H2" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135" t="s">
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="AMO2" s="135"/>
+      <c r="O2" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="AMO2" s="115"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
@@ -2402,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>9</v>
@@ -2464,10 +3579,10 @@
         <v>54</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>36</v>
@@ -2483,18 +3598,18 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137">
+      <c r="A2" s="117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117">
         <v>2</v>
       </c>
-      <c r="E2" s="137" t="s">
-        <v>125</v>
+      <c r="E2" s="117" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2524,22 +3639,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>13</v>
@@ -2552,216 +3667,216 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="91">
+        <v>1</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="98">
+        <v>992.98255190377802</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="103">
+        <v>489.45</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="94">
-        <v>1</v>
-      </c>
-      <c r="F2" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="94" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="101" t="s">
+      <c r="B5" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="101" t="s">
+      <c r="C5" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="101">
-        <v>992.98255190377802</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="101" t="s">
+      <c r="E5" s="106">
+        <v>5.5313109099319684</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="110" t="s">
+      <c r="B6" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="110" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="110" t="s">
+      <c r="C6" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="110">
-        <v>489.45</v>
-      </c>
-      <c r="F4" s="110" t="s">
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="108">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="111">
+        <v>4.8828698208797903</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="110" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="113" t="s">
+      <c r="B9" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="113" t="s">
+      <c r="C9" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="114">
+        <v>2.2584973866611409E-2</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="113">
-        <v>5.5313109099319684</v>
-      </c>
-      <c r="F5" s="113" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="127" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="127" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="127" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="127">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="F7" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="127" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="131" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="131" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="131">
-        <v>4.8828698208797903</v>
-      </c>
-      <c r="F8" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="134" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="134" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="134">
-        <v>2.2584973866611409E-2</v>
-      </c>
-      <c r="F9" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
     </row>
   </sheetData>
   <sortState ref="A2:J9">
@@ -2794,34 +3909,34 @@
   <sheetData>
     <row r="1" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>154</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>13</v>
@@ -2834,166 +3949,166 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138" t="s">
+      <c r="A2" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="120">
+        <v>37</v>
+      </c>
+      <c r="I2" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="118"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="120">
+        <v>37</v>
+      </c>
+      <c r="I3" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="120">
+        <v>37</v>
+      </c>
+      <c r="I4" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="M4" s="118"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="M5" s="118"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="122" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="140">
+      <c r="M6" s="121"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="124">
         <v>37</v>
       </c>
-      <c r="I2" s="139" t="s">
+      <c r="I7" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123" t="s">
         <v>158</v>
-      </c>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="138"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" s="140" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="140">
-        <v>37</v>
-      </c>
-      <c r="I3" s="140" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="140" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="140">
-        <v>37</v>
-      </c>
-      <c r="I4" s="140" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138" t="s">
-        <v>161</v>
-      </c>
-      <c r="M4" s="138"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="138" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" s="138"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="141" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="142" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141" t="s">
-        <v>163</v>
-      </c>
-      <c r="M6" s="141"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="143" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="144">
-        <v>37</v>
-      </c>
-      <c r="I7" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3035,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +4163,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3090,25 +4205,25 @@
         <v>29</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>13</v>
@@ -3118,216 +4233,216 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="89">
+        <v>326</v>
+      </c>
+      <c r="H2" s="89">
+        <v>5957</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="89">
+        <v>2009</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="C3" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="92" t="s">
+      <c r="E3" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="F3" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="88">
+        <v>231</v>
+      </c>
+      <c r="H3" s="88">
+        <v>1</v>
+      </c>
+      <c r="I3" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="92">
-        <v>326</v>
-      </c>
-      <c r="H2" s="92">
-        <v>5957</v>
-      </c>
-      <c r="I2" s="92" t="s">
+      <c r="J3" s="88">
+        <v>1990</v>
+      </c>
+      <c r="K3" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="92">
-        <v>2009</v>
-      </c>
-      <c r="K2" s="92" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116">
+        <v>2013</v>
+      </c>
+      <c r="K4" s="116"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="126">
+        <v>5</v>
+      </c>
+      <c r="H5" s="126">
+        <v>12</v>
+      </c>
+      <c r="I5" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="126">
+        <v>2006</v>
+      </c>
+      <c r="K5" s="126" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="127" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="127" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="91">
-        <v>231</v>
-      </c>
-      <c r="H3" s="91">
-        <v>1</v>
-      </c>
-      <c r="I3" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="91">
-        <v>1990</v>
-      </c>
-      <c r="K3" s="91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="136" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="136" t="s">
+      <c r="G6" s="127">
+        <v>7</v>
+      </c>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127">
+        <v>511</v>
+      </c>
+      <c r="J6" s="127">
+        <v>2011</v>
+      </c>
+      <c r="K6" s="127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="128" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136">
-        <v>2013</v>
-      </c>
-      <c r="K4" s="136"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="146" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="146" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="146" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="146" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="146" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="146" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="146">
-        <v>5</v>
-      </c>
-      <c r="H5" s="146">
-        <v>12</v>
-      </c>
-      <c r="I5" s="146" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="146">
-        <v>2006</v>
-      </c>
-      <c r="K5" s="146" t="s">
+      <c r="D7" s="128" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="147" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="147" t="s">
+      <c r="E7" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="147" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128">
+        <v>2014</v>
+      </c>
+      <c r="K7" s="128"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="129" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="C8" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="147">
-        <v>7</v>
-      </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147">
-        <v>511</v>
-      </c>
-      <c r="J6" s="147">
-        <v>2011</v>
-      </c>
-      <c r="K6" s="147" t="s">
+      <c r="E8" s="129" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="148" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="148" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148">
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129">
         <v>2014</v>
       </c>
-      <c r="K7" s="148"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="149" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="149" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="149" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149">
-        <v>2014</v>
-      </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
     </row>
   </sheetData>
   <sortState ref="A2:L8">
@@ -5833,248 +6948,248 @@
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:12" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="77">
         <v>278</v>
       </c>
-      <c r="F2" s="80">
+      <c r="F2" s="77">
         <v>287</v>
       </c>
-      <c r="G2" s="81">
+      <c r="G2" s="78">
         <v>130.58634910941501</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="71"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="G3" s="68"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="71"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="G4" s="68"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
+      <c r="G5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="71"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
+      <c r="G6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="71"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
+      <c r="G7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="71"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="G8" s="68"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="71"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="G9" s="68"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="G10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="71"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="G11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="G12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="G13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
+      <c r="G14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="71"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="71"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="71"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="71"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="71"/>
+      <c r="G19" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6145,41 +7260,41 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="82">
         <v>-35</v>
       </c>
-      <c r="G2" s="85">
+      <c r="G2" s="82">
         <v>-40</v>
       </c>
-      <c r="H2" s="85">
+      <c r="H2" s="82">
         <v>652</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="82">
         <v>1900</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="86" t="s">
+      <c r="K2" s="81"/>
+      <c r="L2" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="84"/>
+      <c r="M2" s="81"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
@@ -6216,13 +7331,13 @@
     <col min="10" max="11" width="10.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="70" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="67" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" style="65" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9" style="70" customWidth="1"/>
+    <col min="17" max="17" width="9" style="67" customWidth="1"/>
     <col min="18" max="1028" width="33" style="65" customWidth="1"/>
-    <col min="1029" max="1035" width="9" style="70" customWidth="1"/>
-    <col min="1036" max="16384" width="9" style="70"/>
+    <col min="1029" max="1035" width="9" style="67" customWidth="1"/>
+    <col min="1036" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1028" s="21" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6282,1060 +7397,1060 @@
       <c r="AMN1" s="32"/>
     </row>
     <row r="2" spans="1:1028" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="89">
+      <c r="J2" s="86">
         <v>692</v>
       </c>
-      <c r="K2" s="89">
+      <c r="K2" s="86">
         <v>1834</v>
       </c>
-      <c r="L2" s="89" t="b">
+      <c r="L2" s="86" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="89" t="s">
+      <c r="O2" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="87"/>
-      <c r="BK2" s="87"/>
-      <c r="BL2" s="87"/>
-      <c r="BM2" s="87"/>
-      <c r="BN2" s="87"/>
-      <c r="BO2" s="87"/>
-      <c r="BP2" s="87"/>
-      <c r="BQ2" s="87"/>
-      <c r="BR2" s="87"/>
-      <c r="BS2" s="87"/>
-      <c r="BT2" s="87"/>
-      <c r="BU2" s="87"/>
-      <c r="BV2" s="87"/>
-      <c r="BW2" s="87"/>
-      <c r="BX2" s="87"/>
-      <c r="BY2" s="87"/>
-      <c r="BZ2" s="87"/>
-      <c r="CA2" s="87"/>
-      <c r="CB2" s="87"/>
-      <c r="CC2" s="87"/>
-      <c r="CD2" s="87"/>
-      <c r="CE2" s="87"/>
-      <c r="CF2" s="87"/>
-      <c r="CG2" s="87"/>
-      <c r="CH2" s="87"/>
-      <c r="CI2" s="87"/>
-      <c r="CJ2" s="87"/>
-      <c r="CK2" s="87"/>
-      <c r="CL2" s="87"/>
-      <c r="CM2" s="87"/>
-      <c r="CN2" s="87"/>
-      <c r="CO2" s="87"/>
-      <c r="CP2" s="87"/>
-      <c r="CQ2" s="87"/>
-      <c r="CR2" s="87"/>
-      <c r="CS2" s="87"/>
-      <c r="CT2" s="87"/>
-      <c r="CU2" s="87"/>
-      <c r="CV2" s="87"/>
-      <c r="CW2" s="87"/>
-      <c r="CX2" s="87"/>
-      <c r="CY2" s="87"/>
-      <c r="CZ2" s="87"/>
-      <c r="DA2" s="87"/>
-      <c r="DB2" s="87"/>
-      <c r="DC2" s="87"/>
-      <c r="DD2" s="87"/>
-      <c r="DE2" s="87"/>
-      <c r="DF2" s="87"/>
-      <c r="DG2" s="87"/>
-      <c r="DH2" s="87"/>
-      <c r="DI2" s="87"/>
-      <c r="DJ2" s="87"/>
-      <c r="DK2" s="87"/>
-      <c r="DL2" s="87"/>
-      <c r="DM2" s="87"/>
-      <c r="DN2" s="87"/>
-      <c r="DO2" s="87"/>
-      <c r="DP2" s="87"/>
-      <c r="DQ2" s="87"/>
-      <c r="DR2" s="87"/>
-      <c r="DS2" s="87"/>
-      <c r="DT2" s="87"/>
-      <c r="DU2" s="87"/>
-      <c r="DV2" s="87"/>
-      <c r="DW2" s="87"/>
-      <c r="DX2" s="87"/>
-      <c r="DY2" s="87"/>
-      <c r="DZ2" s="87"/>
-      <c r="EA2" s="87"/>
-      <c r="EB2" s="87"/>
-      <c r="EC2" s="87"/>
-      <c r="ED2" s="87"/>
-      <c r="EE2" s="87"/>
-      <c r="EF2" s="87"/>
-      <c r="EG2" s="87"/>
-      <c r="EH2" s="87"/>
-      <c r="EI2" s="87"/>
-      <c r="EJ2" s="87"/>
-      <c r="EK2" s="87"/>
-      <c r="EL2" s="87"/>
-      <c r="EM2" s="87"/>
-      <c r="EN2" s="87"/>
-      <c r="EO2" s="87"/>
-      <c r="EP2" s="87"/>
-      <c r="EQ2" s="87"/>
-      <c r="ER2" s="87"/>
-      <c r="ES2" s="87"/>
-      <c r="ET2" s="87"/>
-      <c r="EU2" s="87"/>
-      <c r="EV2" s="87"/>
-      <c r="EW2" s="87"/>
-      <c r="EX2" s="87"/>
-      <c r="EY2" s="87"/>
-      <c r="EZ2" s="87"/>
-      <c r="FA2" s="87"/>
-      <c r="FB2" s="87"/>
-      <c r="FC2" s="87"/>
-      <c r="FD2" s="87"/>
-      <c r="FE2" s="87"/>
-      <c r="FF2" s="87"/>
-      <c r="FG2" s="87"/>
-      <c r="FH2" s="87"/>
-      <c r="FI2" s="87"/>
-      <c r="FJ2" s="87"/>
-      <c r="FK2" s="87"/>
-      <c r="FL2" s="87"/>
-      <c r="FM2" s="87"/>
-      <c r="FN2" s="87"/>
-      <c r="FO2" s="87"/>
-      <c r="FP2" s="87"/>
-      <c r="FQ2" s="87"/>
-      <c r="FR2" s="87"/>
-      <c r="FS2" s="87"/>
-      <c r="FT2" s="87"/>
-      <c r="FU2" s="87"/>
-      <c r="FV2" s="87"/>
-      <c r="FW2" s="87"/>
-      <c r="FX2" s="87"/>
-      <c r="FY2" s="87"/>
-      <c r="FZ2" s="87"/>
-      <c r="GA2" s="87"/>
-      <c r="GB2" s="87"/>
-      <c r="GC2" s="87"/>
-      <c r="GD2" s="87"/>
-      <c r="GE2" s="87"/>
-      <c r="GF2" s="87"/>
-      <c r="GG2" s="87"/>
-      <c r="GH2" s="87"/>
-      <c r="GI2" s="87"/>
-      <c r="GJ2" s="87"/>
-      <c r="GK2" s="87"/>
-      <c r="GL2" s="87"/>
-      <c r="GM2" s="87"/>
-      <c r="GN2" s="87"/>
-      <c r="GO2" s="87"/>
-      <c r="GP2" s="87"/>
-      <c r="GQ2" s="87"/>
-      <c r="GR2" s="87"/>
-      <c r="GS2" s="87"/>
-      <c r="GT2" s="87"/>
-      <c r="GU2" s="87"/>
-      <c r="GV2" s="87"/>
-      <c r="GW2" s="87"/>
-      <c r="GX2" s="87"/>
-      <c r="GY2" s="87"/>
-      <c r="GZ2" s="87"/>
-      <c r="HA2" s="87"/>
-      <c r="HB2" s="87"/>
-      <c r="HC2" s="87"/>
-      <c r="HD2" s="87"/>
-      <c r="HE2" s="87"/>
-      <c r="HF2" s="87"/>
-      <c r="HG2" s="87"/>
-      <c r="HH2" s="87"/>
-      <c r="HI2" s="87"/>
-      <c r="HJ2" s="87"/>
-      <c r="HK2" s="87"/>
-      <c r="HL2" s="87"/>
-      <c r="HM2" s="87"/>
-      <c r="HN2" s="87"/>
-      <c r="HO2" s="87"/>
-      <c r="HP2" s="87"/>
-      <c r="HQ2" s="87"/>
-      <c r="HR2" s="87"/>
-      <c r="HS2" s="87"/>
-      <c r="HT2" s="87"/>
-      <c r="HU2" s="87"/>
-      <c r="HV2" s="87"/>
-      <c r="HW2" s="87"/>
-      <c r="HX2" s="87"/>
-      <c r="HY2" s="87"/>
-      <c r="HZ2" s="87"/>
-      <c r="IA2" s="87"/>
-      <c r="IB2" s="87"/>
-      <c r="IC2" s="87"/>
-      <c r="ID2" s="87"/>
-      <c r="IE2" s="87"/>
-      <c r="IF2" s="87"/>
-      <c r="IG2" s="87"/>
-      <c r="IH2" s="87"/>
-      <c r="II2" s="87"/>
-      <c r="IJ2" s="87"/>
-      <c r="IK2" s="87"/>
-      <c r="IL2" s="87"/>
-      <c r="IM2" s="87"/>
-      <c r="IN2" s="87"/>
-      <c r="IO2" s="87"/>
-      <c r="IP2" s="87"/>
-      <c r="IQ2" s="87"/>
-      <c r="IR2" s="87"/>
-      <c r="IS2" s="87"/>
-      <c r="IT2" s="87"/>
-      <c r="IU2" s="87"/>
-      <c r="IV2" s="87"/>
-      <c r="IW2" s="87"/>
-      <c r="IX2" s="87"/>
-      <c r="IY2" s="87"/>
-      <c r="IZ2" s="87"/>
-      <c r="JA2" s="87"/>
-      <c r="JB2" s="87"/>
-      <c r="JC2" s="87"/>
-      <c r="JD2" s="87"/>
-      <c r="JE2" s="87"/>
-      <c r="JF2" s="87"/>
-      <c r="JG2" s="87"/>
-      <c r="JH2" s="87"/>
-      <c r="JI2" s="87"/>
-      <c r="JJ2" s="87"/>
-      <c r="JK2" s="87"/>
-      <c r="JL2" s="87"/>
-      <c r="JM2" s="87"/>
-      <c r="JN2" s="87"/>
-      <c r="JO2" s="87"/>
-      <c r="JP2" s="87"/>
-      <c r="JQ2" s="87"/>
-      <c r="JR2" s="87"/>
-      <c r="JS2" s="87"/>
-      <c r="JT2" s="87"/>
-      <c r="JU2" s="87"/>
-      <c r="JV2" s="87"/>
-      <c r="JW2" s="87"/>
-      <c r="JX2" s="87"/>
-      <c r="JY2" s="87"/>
-      <c r="JZ2" s="87"/>
-      <c r="KA2" s="87"/>
-      <c r="KB2" s="87"/>
-      <c r="KC2" s="87"/>
-      <c r="KD2" s="87"/>
-      <c r="KE2" s="87"/>
-      <c r="KF2" s="87"/>
-      <c r="KG2" s="87"/>
-      <c r="KH2" s="87"/>
-      <c r="KI2" s="87"/>
-      <c r="KJ2" s="87"/>
-      <c r="KK2" s="87"/>
-      <c r="KL2" s="87"/>
-      <c r="KM2" s="87"/>
-      <c r="KN2" s="87"/>
-      <c r="KO2" s="87"/>
-      <c r="KP2" s="87"/>
-      <c r="KQ2" s="87"/>
-      <c r="KR2" s="87"/>
-      <c r="KS2" s="87"/>
-      <c r="KT2" s="87"/>
-      <c r="KU2" s="87"/>
-      <c r="KV2" s="87"/>
-      <c r="KW2" s="87"/>
-      <c r="KX2" s="87"/>
-      <c r="KY2" s="87"/>
-      <c r="KZ2" s="87"/>
-      <c r="LA2" s="87"/>
-      <c r="LB2" s="87"/>
-      <c r="LC2" s="87"/>
-      <c r="LD2" s="87"/>
-      <c r="LE2" s="87"/>
-      <c r="LF2" s="87"/>
-      <c r="LG2" s="87"/>
-      <c r="LH2" s="87"/>
-      <c r="LI2" s="87"/>
-      <c r="LJ2" s="87"/>
-      <c r="LK2" s="87"/>
-      <c r="LL2" s="87"/>
-      <c r="LM2" s="87"/>
-      <c r="LN2" s="87"/>
-      <c r="LO2" s="87"/>
-      <c r="LP2" s="87"/>
-      <c r="LQ2" s="87"/>
-      <c r="LR2" s="87"/>
-      <c r="LS2" s="87"/>
-      <c r="LT2" s="87"/>
-      <c r="LU2" s="87"/>
-      <c r="LV2" s="87"/>
-      <c r="LW2" s="87"/>
-      <c r="LX2" s="87"/>
-      <c r="LY2" s="87"/>
-      <c r="LZ2" s="87"/>
-      <c r="MA2" s="87"/>
-      <c r="MB2" s="87"/>
-      <c r="MC2" s="87"/>
-      <c r="MD2" s="87"/>
-      <c r="ME2" s="87"/>
-      <c r="MF2" s="87"/>
-      <c r="MG2" s="87"/>
-      <c r="MH2" s="87"/>
-      <c r="MI2" s="87"/>
-      <c r="MJ2" s="87"/>
-      <c r="MK2" s="87"/>
-      <c r="ML2" s="87"/>
-      <c r="MM2" s="87"/>
-      <c r="MN2" s="87"/>
-      <c r="MO2" s="87"/>
-      <c r="MP2" s="87"/>
-      <c r="MQ2" s="87"/>
-      <c r="MR2" s="87"/>
-      <c r="MS2" s="87"/>
-      <c r="MT2" s="87"/>
-      <c r="MU2" s="87"/>
-      <c r="MV2" s="87"/>
-      <c r="MW2" s="87"/>
-      <c r="MX2" s="87"/>
-      <c r="MY2" s="87"/>
-      <c r="MZ2" s="87"/>
-      <c r="NA2" s="87"/>
-      <c r="NB2" s="87"/>
-      <c r="NC2" s="87"/>
-      <c r="ND2" s="87"/>
-      <c r="NE2" s="87"/>
-      <c r="NF2" s="87"/>
-      <c r="NG2" s="87"/>
-      <c r="NH2" s="87"/>
-      <c r="NI2" s="87"/>
-      <c r="NJ2" s="87"/>
-      <c r="NK2" s="87"/>
-      <c r="NL2" s="87"/>
-      <c r="NM2" s="87"/>
-      <c r="NN2" s="87"/>
-      <c r="NO2" s="87"/>
-      <c r="NP2" s="87"/>
-      <c r="NQ2" s="87"/>
-      <c r="NR2" s="87"/>
-      <c r="NS2" s="87"/>
-      <c r="NT2" s="87"/>
-      <c r="NU2" s="87"/>
-      <c r="NV2" s="87"/>
-      <c r="NW2" s="87"/>
-      <c r="NX2" s="87"/>
-      <c r="NY2" s="87"/>
-      <c r="NZ2" s="87"/>
-      <c r="OA2" s="87"/>
-      <c r="OB2" s="87"/>
-      <c r="OC2" s="87"/>
-      <c r="OD2" s="87"/>
-      <c r="OE2" s="87"/>
-      <c r="OF2" s="87"/>
-      <c r="OG2" s="87"/>
-      <c r="OH2" s="87"/>
-      <c r="OI2" s="87"/>
-      <c r="OJ2" s="87"/>
-      <c r="OK2" s="87"/>
-      <c r="OL2" s="87"/>
-      <c r="OM2" s="87"/>
-      <c r="ON2" s="87"/>
-      <c r="OO2" s="87"/>
-      <c r="OP2" s="87"/>
-      <c r="OQ2" s="87"/>
-      <c r="OR2" s="87"/>
-      <c r="OS2" s="87"/>
-      <c r="OT2" s="87"/>
-      <c r="OU2" s="87"/>
-      <c r="OV2" s="87"/>
-      <c r="OW2" s="87"/>
-      <c r="OX2" s="87"/>
-      <c r="OY2" s="87"/>
-      <c r="OZ2" s="87"/>
-      <c r="PA2" s="87"/>
-      <c r="PB2" s="87"/>
-      <c r="PC2" s="87"/>
-      <c r="PD2" s="87"/>
-      <c r="PE2" s="87"/>
-      <c r="PF2" s="87"/>
-      <c r="PG2" s="87"/>
-      <c r="PH2" s="87"/>
-      <c r="PI2" s="87"/>
-      <c r="PJ2" s="87"/>
-      <c r="PK2" s="87"/>
-      <c r="PL2" s="87"/>
-      <c r="PM2" s="87"/>
-      <c r="PN2" s="87"/>
-      <c r="PO2" s="87"/>
-      <c r="PP2" s="87"/>
-      <c r="PQ2" s="87"/>
-      <c r="PR2" s="87"/>
-      <c r="PS2" s="87"/>
-      <c r="PT2" s="87"/>
-      <c r="PU2" s="87"/>
-      <c r="PV2" s="87"/>
-      <c r="PW2" s="87"/>
-      <c r="PX2" s="87"/>
-      <c r="PY2" s="87"/>
-      <c r="PZ2" s="87"/>
-      <c r="QA2" s="87"/>
-      <c r="QB2" s="87"/>
-      <c r="QC2" s="87"/>
-      <c r="QD2" s="87"/>
-      <c r="QE2" s="87"/>
-      <c r="QF2" s="87"/>
-      <c r="QG2" s="87"/>
-      <c r="QH2" s="87"/>
-      <c r="QI2" s="87"/>
-      <c r="QJ2" s="87"/>
-      <c r="QK2" s="87"/>
-      <c r="QL2" s="87"/>
-      <c r="QM2" s="87"/>
-      <c r="QN2" s="87"/>
-      <c r="QO2" s="87"/>
-      <c r="QP2" s="87"/>
-      <c r="QQ2" s="87"/>
-      <c r="QR2" s="87"/>
-      <c r="QS2" s="87"/>
-      <c r="QT2" s="87"/>
-      <c r="QU2" s="87"/>
-      <c r="QV2" s="87"/>
-      <c r="QW2" s="87"/>
-      <c r="QX2" s="87"/>
-      <c r="QY2" s="87"/>
-      <c r="QZ2" s="87"/>
-      <c r="RA2" s="87"/>
-      <c r="RB2" s="87"/>
-      <c r="RC2" s="87"/>
-      <c r="RD2" s="87"/>
-      <c r="RE2" s="87"/>
-      <c r="RF2" s="87"/>
-      <c r="RG2" s="87"/>
-      <c r="RH2" s="87"/>
-      <c r="RI2" s="87"/>
-      <c r="RJ2" s="87"/>
-      <c r="RK2" s="87"/>
-      <c r="RL2" s="87"/>
-      <c r="RM2" s="87"/>
-      <c r="RN2" s="87"/>
-      <c r="RO2" s="87"/>
-      <c r="RP2" s="87"/>
-      <c r="RQ2" s="87"/>
-      <c r="RR2" s="87"/>
-      <c r="RS2" s="87"/>
-      <c r="RT2" s="87"/>
-      <c r="RU2" s="87"/>
-      <c r="RV2" s="87"/>
-      <c r="RW2" s="87"/>
-      <c r="RX2" s="87"/>
-      <c r="RY2" s="87"/>
-      <c r="RZ2" s="87"/>
-      <c r="SA2" s="87"/>
-      <c r="SB2" s="87"/>
-      <c r="SC2" s="87"/>
-      <c r="SD2" s="87"/>
-      <c r="SE2" s="87"/>
-      <c r="SF2" s="87"/>
-      <c r="SG2" s="87"/>
-      <c r="SH2" s="87"/>
-      <c r="SI2" s="87"/>
-      <c r="SJ2" s="87"/>
-      <c r="SK2" s="87"/>
-      <c r="SL2" s="87"/>
-      <c r="SM2" s="87"/>
-      <c r="SN2" s="87"/>
-      <c r="SO2" s="87"/>
-      <c r="SP2" s="87"/>
-      <c r="SQ2" s="87"/>
-      <c r="SR2" s="87"/>
-      <c r="SS2" s="87"/>
-      <c r="ST2" s="87"/>
-      <c r="SU2" s="87"/>
-      <c r="SV2" s="87"/>
-      <c r="SW2" s="87"/>
-      <c r="SX2" s="87"/>
-      <c r="SY2" s="87"/>
-      <c r="SZ2" s="87"/>
-      <c r="TA2" s="87"/>
-      <c r="TB2" s="87"/>
-      <c r="TC2" s="87"/>
-      <c r="TD2" s="87"/>
-      <c r="TE2" s="87"/>
-      <c r="TF2" s="87"/>
-      <c r="TG2" s="87"/>
-      <c r="TH2" s="87"/>
-      <c r="TI2" s="87"/>
-      <c r="TJ2" s="87"/>
-      <c r="TK2" s="87"/>
-      <c r="TL2" s="87"/>
-      <c r="TM2" s="87"/>
-      <c r="TN2" s="87"/>
-      <c r="TO2" s="87"/>
-      <c r="TP2" s="87"/>
-      <c r="TQ2" s="87"/>
-      <c r="TR2" s="87"/>
-      <c r="TS2" s="87"/>
-      <c r="TT2" s="87"/>
-      <c r="TU2" s="87"/>
-      <c r="TV2" s="87"/>
-      <c r="TW2" s="87"/>
-      <c r="TX2" s="87"/>
-      <c r="TY2" s="87"/>
-      <c r="TZ2" s="87"/>
-      <c r="UA2" s="87"/>
-      <c r="UB2" s="87"/>
-      <c r="UC2" s="87"/>
-      <c r="UD2" s="87"/>
-      <c r="UE2" s="87"/>
-      <c r="UF2" s="87"/>
-      <c r="UG2" s="87"/>
-      <c r="UH2" s="87"/>
-      <c r="UI2" s="87"/>
-      <c r="UJ2" s="87"/>
-      <c r="UK2" s="87"/>
-      <c r="UL2" s="87"/>
-      <c r="UM2" s="87"/>
-      <c r="UN2" s="87"/>
-      <c r="UO2" s="87"/>
-      <c r="UP2" s="87"/>
-      <c r="UQ2" s="87"/>
-      <c r="UR2" s="87"/>
-      <c r="US2" s="87"/>
-      <c r="UT2" s="87"/>
-      <c r="UU2" s="87"/>
-      <c r="UV2" s="87"/>
-      <c r="UW2" s="87"/>
-      <c r="UX2" s="87"/>
-      <c r="UY2" s="87"/>
-      <c r="UZ2" s="87"/>
-      <c r="VA2" s="87"/>
-      <c r="VB2" s="87"/>
-      <c r="VC2" s="87"/>
-      <c r="VD2" s="87"/>
-      <c r="VE2" s="87"/>
-      <c r="VF2" s="87"/>
-      <c r="VG2" s="87"/>
-      <c r="VH2" s="87"/>
-      <c r="VI2" s="87"/>
-      <c r="VJ2" s="87"/>
-      <c r="VK2" s="87"/>
-      <c r="VL2" s="87"/>
-      <c r="VM2" s="87"/>
-      <c r="VN2" s="87"/>
-      <c r="VO2" s="87"/>
-      <c r="VP2" s="87"/>
-      <c r="VQ2" s="87"/>
-      <c r="VR2" s="87"/>
-      <c r="VS2" s="87"/>
-      <c r="VT2" s="87"/>
-      <c r="VU2" s="87"/>
-      <c r="VV2" s="87"/>
-      <c r="VW2" s="87"/>
-      <c r="VX2" s="87"/>
-      <c r="VY2" s="87"/>
-      <c r="VZ2" s="87"/>
-      <c r="WA2" s="87"/>
-      <c r="WB2" s="87"/>
-      <c r="WC2" s="87"/>
-      <c r="WD2" s="87"/>
-      <c r="WE2" s="87"/>
-      <c r="WF2" s="87"/>
-      <c r="WG2" s="87"/>
-      <c r="WH2" s="87"/>
-      <c r="WI2" s="87"/>
-      <c r="WJ2" s="87"/>
-      <c r="WK2" s="87"/>
-      <c r="WL2" s="87"/>
-      <c r="WM2" s="87"/>
-      <c r="WN2" s="87"/>
-      <c r="WO2" s="87"/>
-      <c r="WP2" s="87"/>
-      <c r="WQ2" s="87"/>
-      <c r="WR2" s="87"/>
-      <c r="WS2" s="87"/>
-      <c r="WT2" s="87"/>
-      <c r="WU2" s="87"/>
-      <c r="WV2" s="87"/>
-      <c r="WW2" s="87"/>
-      <c r="WX2" s="87"/>
-      <c r="WY2" s="87"/>
-      <c r="WZ2" s="87"/>
-      <c r="XA2" s="87"/>
-      <c r="XB2" s="87"/>
-      <c r="XC2" s="87"/>
-      <c r="XD2" s="87"/>
-      <c r="XE2" s="87"/>
-      <c r="XF2" s="87"/>
-      <c r="XG2" s="87"/>
-      <c r="XH2" s="87"/>
-      <c r="XI2" s="87"/>
-      <c r="XJ2" s="87"/>
-      <c r="XK2" s="87"/>
-      <c r="XL2" s="87"/>
-      <c r="XM2" s="87"/>
-      <c r="XN2" s="87"/>
-      <c r="XO2" s="87"/>
-      <c r="XP2" s="87"/>
-      <c r="XQ2" s="87"/>
-      <c r="XR2" s="87"/>
-      <c r="XS2" s="87"/>
-      <c r="XT2" s="87"/>
-      <c r="XU2" s="87"/>
-      <c r="XV2" s="87"/>
-      <c r="XW2" s="87"/>
-      <c r="XX2" s="87"/>
-      <c r="XY2" s="87"/>
-      <c r="XZ2" s="87"/>
-      <c r="YA2" s="87"/>
-      <c r="YB2" s="87"/>
-      <c r="YC2" s="87"/>
-      <c r="YD2" s="87"/>
-      <c r="YE2" s="87"/>
-      <c r="YF2" s="87"/>
-      <c r="YG2" s="87"/>
-      <c r="YH2" s="87"/>
-      <c r="YI2" s="87"/>
-      <c r="YJ2" s="87"/>
-      <c r="YK2" s="87"/>
-      <c r="YL2" s="87"/>
-      <c r="YM2" s="87"/>
-      <c r="YN2" s="87"/>
-      <c r="YO2" s="87"/>
-      <c r="YP2" s="87"/>
-      <c r="YQ2" s="87"/>
-      <c r="YR2" s="87"/>
-      <c r="YS2" s="87"/>
-      <c r="YT2" s="87"/>
-      <c r="YU2" s="87"/>
-      <c r="YV2" s="87"/>
-      <c r="YW2" s="87"/>
-      <c r="YX2" s="87"/>
-      <c r="YY2" s="87"/>
-      <c r="YZ2" s="87"/>
-      <c r="ZA2" s="87"/>
-      <c r="ZB2" s="87"/>
-      <c r="ZC2" s="87"/>
-      <c r="ZD2" s="87"/>
-      <c r="ZE2" s="87"/>
-      <c r="ZF2" s="87"/>
-      <c r="ZG2" s="87"/>
-      <c r="ZH2" s="87"/>
-      <c r="ZI2" s="87"/>
-      <c r="ZJ2" s="87"/>
-      <c r="ZK2" s="87"/>
-      <c r="ZL2" s="87"/>
-      <c r="ZM2" s="87"/>
-      <c r="ZN2" s="87"/>
-      <c r="ZO2" s="87"/>
-      <c r="ZP2" s="87"/>
-      <c r="ZQ2" s="87"/>
-      <c r="ZR2" s="87"/>
-      <c r="ZS2" s="87"/>
-      <c r="ZT2" s="87"/>
-      <c r="ZU2" s="87"/>
-      <c r="ZV2" s="87"/>
-      <c r="ZW2" s="87"/>
-      <c r="ZX2" s="87"/>
-      <c r="ZY2" s="87"/>
-      <c r="ZZ2" s="87"/>
-      <c r="AAA2" s="87"/>
-      <c r="AAB2" s="87"/>
-      <c r="AAC2" s="87"/>
-      <c r="AAD2" s="87"/>
-      <c r="AAE2" s="87"/>
-      <c r="AAF2" s="87"/>
-      <c r="AAG2" s="87"/>
-      <c r="AAH2" s="87"/>
-      <c r="AAI2" s="87"/>
-      <c r="AAJ2" s="87"/>
-      <c r="AAK2" s="87"/>
-      <c r="AAL2" s="87"/>
-      <c r="AAM2" s="87"/>
-      <c r="AAN2" s="87"/>
-      <c r="AAO2" s="87"/>
-      <c r="AAP2" s="87"/>
-      <c r="AAQ2" s="87"/>
-      <c r="AAR2" s="87"/>
-      <c r="AAS2" s="87"/>
-      <c r="AAT2" s="87"/>
-      <c r="AAU2" s="87"/>
-      <c r="AAV2" s="87"/>
-      <c r="AAW2" s="87"/>
-      <c r="AAX2" s="87"/>
-      <c r="AAY2" s="87"/>
-      <c r="AAZ2" s="87"/>
-      <c r="ABA2" s="87"/>
-      <c r="ABB2" s="87"/>
-      <c r="ABC2" s="87"/>
-      <c r="ABD2" s="87"/>
-      <c r="ABE2" s="87"/>
-      <c r="ABF2" s="87"/>
-      <c r="ABG2" s="87"/>
-      <c r="ABH2" s="87"/>
-      <c r="ABI2" s="87"/>
-      <c r="ABJ2" s="87"/>
-      <c r="ABK2" s="87"/>
-      <c r="ABL2" s="87"/>
-      <c r="ABM2" s="87"/>
-      <c r="ABN2" s="87"/>
-      <c r="ABO2" s="87"/>
-      <c r="ABP2" s="87"/>
-      <c r="ABQ2" s="87"/>
-      <c r="ABR2" s="87"/>
-      <c r="ABS2" s="87"/>
-      <c r="ABT2" s="87"/>
-      <c r="ABU2" s="87"/>
-      <c r="ABV2" s="87"/>
-      <c r="ABW2" s="87"/>
-      <c r="ABX2" s="87"/>
-      <c r="ABY2" s="87"/>
-      <c r="ABZ2" s="87"/>
-      <c r="ACA2" s="87"/>
-      <c r="ACB2" s="87"/>
-      <c r="ACC2" s="87"/>
-      <c r="ACD2" s="87"/>
-      <c r="ACE2" s="87"/>
-      <c r="ACF2" s="87"/>
-      <c r="ACG2" s="87"/>
-      <c r="ACH2" s="87"/>
-      <c r="ACI2" s="87"/>
-      <c r="ACJ2" s="87"/>
-      <c r="ACK2" s="87"/>
-      <c r="ACL2" s="87"/>
-      <c r="ACM2" s="87"/>
-      <c r="ACN2" s="87"/>
-      <c r="ACO2" s="87"/>
-      <c r="ACP2" s="87"/>
-      <c r="ACQ2" s="87"/>
-      <c r="ACR2" s="87"/>
-      <c r="ACS2" s="87"/>
-      <c r="ACT2" s="87"/>
-      <c r="ACU2" s="87"/>
-      <c r="ACV2" s="87"/>
-      <c r="ACW2" s="87"/>
-      <c r="ACX2" s="87"/>
-      <c r="ACY2" s="87"/>
-      <c r="ACZ2" s="87"/>
-      <c r="ADA2" s="87"/>
-      <c r="ADB2" s="87"/>
-      <c r="ADC2" s="87"/>
-      <c r="ADD2" s="87"/>
-      <c r="ADE2" s="87"/>
-      <c r="ADF2" s="87"/>
-      <c r="ADG2" s="87"/>
-      <c r="ADH2" s="87"/>
-      <c r="ADI2" s="87"/>
-      <c r="ADJ2" s="87"/>
-      <c r="ADK2" s="87"/>
-      <c r="ADL2" s="87"/>
-      <c r="ADM2" s="87"/>
-      <c r="ADN2" s="87"/>
-      <c r="ADO2" s="87"/>
-      <c r="ADP2" s="87"/>
-      <c r="ADQ2" s="87"/>
-      <c r="ADR2" s="87"/>
-      <c r="ADS2" s="87"/>
-      <c r="ADT2" s="87"/>
-      <c r="ADU2" s="87"/>
-      <c r="ADV2" s="87"/>
-      <c r="ADW2" s="87"/>
-      <c r="ADX2" s="87"/>
-      <c r="ADY2" s="87"/>
-      <c r="ADZ2" s="87"/>
-      <c r="AEA2" s="87"/>
-      <c r="AEB2" s="87"/>
-      <c r="AEC2" s="87"/>
-      <c r="AED2" s="87"/>
-      <c r="AEE2" s="87"/>
-      <c r="AEF2" s="87"/>
-      <c r="AEG2" s="87"/>
-      <c r="AEH2" s="87"/>
-      <c r="AEI2" s="87"/>
-      <c r="AEJ2" s="87"/>
-      <c r="AEK2" s="87"/>
-      <c r="AEL2" s="87"/>
-      <c r="AEM2" s="87"/>
-      <c r="AEN2" s="87"/>
-      <c r="AEO2" s="87"/>
-      <c r="AEP2" s="87"/>
-      <c r="AEQ2" s="87"/>
-      <c r="AER2" s="87"/>
-      <c r="AES2" s="87"/>
-      <c r="AET2" s="87"/>
-      <c r="AEU2" s="87"/>
-      <c r="AEV2" s="87"/>
-      <c r="AEW2" s="87"/>
-      <c r="AEX2" s="87"/>
-      <c r="AEY2" s="87"/>
-      <c r="AEZ2" s="87"/>
-      <c r="AFA2" s="87"/>
-      <c r="AFB2" s="87"/>
-      <c r="AFC2" s="87"/>
-      <c r="AFD2" s="87"/>
-      <c r="AFE2" s="87"/>
-      <c r="AFF2" s="87"/>
-      <c r="AFG2" s="87"/>
-      <c r="AFH2" s="87"/>
-      <c r="AFI2" s="87"/>
-      <c r="AFJ2" s="87"/>
-      <c r="AFK2" s="87"/>
-      <c r="AFL2" s="87"/>
-      <c r="AFM2" s="87"/>
-      <c r="AFN2" s="87"/>
-      <c r="AFO2" s="87"/>
-      <c r="AFP2" s="87"/>
-      <c r="AFQ2" s="87"/>
-      <c r="AFR2" s="87"/>
-      <c r="AFS2" s="87"/>
-      <c r="AFT2" s="87"/>
-      <c r="AFU2" s="87"/>
-      <c r="AFV2" s="87"/>
-      <c r="AFW2" s="87"/>
-      <c r="AFX2" s="87"/>
-      <c r="AFY2" s="87"/>
-      <c r="AFZ2" s="87"/>
-      <c r="AGA2" s="87"/>
-      <c r="AGB2" s="87"/>
-      <c r="AGC2" s="87"/>
-      <c r="AGD2" s="87"/>
-      <c r="AGE2" s="87"/>
-      <c r="AGF2" s="87"/>
-      <c r="AGG2" s="87"/>
-      <c r="AGH2" s="87"/>
-      <c r="AGI2" s="87"/>
-      <c r="AGJ2" s="87"/>
-      <c r="AGK2" s="87"/>
-      <c r="AGL2" s="87"/>
-      <c r="AGM2" s="87"/>
-      <c r="AGN2" s="87"/>
-      <c r="AGO2" s="87"/>
-      <c r="AGP2" s="87"/>
-      <c r="AGQ2" s="87"/>
-      <c r="AGR2" s="87"/>
-      <c r="AGS2" s="87"/>
-      <c r="AGT2" s="87"/>
-      <c r="AGU2" s="87"/>
-      <c r="AGV2" s="87"/>
-      <c r="AGW2" s="87"/>
-      <c r="AGX2" s="87"/>
-      <c r="AGY2" s="87"/>
-      <c r="AGZ2" s="87"/>
-      <c r="AHA2" s="87"/>
-      <c r="AHB2" s="87"/>
-      <c r="AHC2" s="87"/>
-      <c r="AHD2" s="87"/>
-      <c r="AHE2" s="87"/>
-      <c r="AHF2" s="87"/>
-      <c r="AHG2" s="87"/>
-      <c r="AHH2" s="87"/>
-      <c r="AHI2" s="87"/>
-      <c r="AHJ2" s="87"/>
-      <c r="AHK2" s="87"/>
-      <c r="AHL2" s="87"/>
-      <c r="AHM2" s="87"/>
-      <c r="AHN2" s="87"/>
-      <c r="AHO2" s="87"/>
-      <c r="AHP2" s="87"/>
-      <c r="AHQ2" s="87"/>
-      <c r="AHR2" s="87"/>
-      <c r="AHS2" s="87"/>
-      <c r="AHT2" s="87"/>
-      <c r="AHU2" s="87"/>
-      <c r="AHV2" s="87"/>
-      <c r="AHW2" s="87"/>
-      <c r="AHX2" s="87"/>
-      <c r="AHY2" s="87"/>
-      <c r="AHZ2" s="87"/>
-      <c r="AIA2" s="87"/>
-      <c r="AIB2" s="87"/>
-      <c r="AIC2" s="87"/>
-      <c r="AID2" s="87"/>
-      <c r="AIE2" s="87"/>
-      <c r="AIF2" s="87"/>
-      <c r="AIG2" s="87"/>
-      <c r="AIH2" s="87"/>
-      <c r="AII2" s="87"/>
-      <c r="AIJ2" s="87"/>
-      <c r="AIK2" s="87"/>
-      <c r="AIL2" s="87"/>
-      <c r="AIM2" s="87"/>
-      <c r="AIN2" s="87"/>
-      <c r="AIO2" s="87"/>
-      <c r="AIP2" s="87"/>
-      <c r="AIQ2" s="87"/>
-      <c r="AIR2" s="87"/>
-      <c r="AIS2" s="87"/>
-      <c r="AIT2" s="87"/>
-      <c r="AIU2" s="87"/>
-      <c r="AIV2" s="87"/>
-      <c r="AIW2" s="87"/>
-      <c r="AIX2" s="87"/>
-      <c r="AIY2" s="87"/>
-      <c r="AIZ2" s="87"/>
-      <c r="AJA2" s="87"/>
-      <c r="AJB2" s="87"/>
-      <c r="AJC2" s="87"/>
-      <c r="AJD2" s="87"/>
-      <c r="AJE2" s="87"/>
-      <c r="AJF2" s="87"/>
-      <c r="AJG2" s="87"/>
-      <c r="AJH2" s="87"/>
-      <c r="AJI2" s="87"/>
-      <c r="AJJ2" s="87"/>
-      <c r="AJK2" s="87"/>
-      <c r="AJL2" s="87"/>
-      <c r="AJM2" s="87"/>
-      <c r="AJN2" s="87"/>
-      <c r="AJO2" s="87"/>
-      <c r="AJP2" s="87"/>
-      <c r="AJQ2" s="87"/>
-      <c r="AJR2" s="87"/>
-      <c r="AJS2" s="87"/>
-      <c r="AJT2" s="87"/>
-      <c r="AJU2" s="87"/>
-      <c r="AJV2" s="87"/>
-      <c r="AJW2" s="87"/>
-      <c r="AJX2" s="87"/>
-      <c r="AJY2" s="87"/>
-      <c r="AJZ2" s="87"/>
-      <c r="AKA2" s="87"/>
-      <c r="AKB2" s="87"/>
-      <c r="AKC2" s="87"/>
-      <c r="AKD2" s="87"/>
-      <c r="AKE2" s="87"/>
-      <c r="AKF2" s="87"/>
-      <c r="AKG2" s="87"/>
-      <c r="AKH2" s="87"/>
-      <c r="AKI2" s="87"/>
-      <c r="AKJ2" s="87"/>
-      <c r="AKK2" s="87"/>
-      <c r="AKL2" s="87"/>
-      <c r="AKM2" s="87"/>
-      <c r="AKN2" s="87"/>
-      <c r="AKO2" s="87"/>
-      <c r="AKP2" s="87"/>
-      <c r="AKQ2" s="87"/>
-      <c r="AKR2" s="87"/>
-      <c r="AKS2" s="87"/>
-      <c r="AKT2" s="87"/>
-      <c r="AKU2" s="87"/>
-      <c r="AKV2" s="87"/>
-      <c r="AKW2" s="87"/>
-      <c r="AKX2" s="87"/>
-      <c r="AKY2" s="87"/>
-      <c r="AKZ2" s="87"/>
-      <c r="ALA2" s="87"/>
-      <c r="ALB2" s="87"/>
-      <c r="ALC2" s="87"/>
-      <c r="ALD2" s="87"/>
-      <c r="ALE2" s="87"/>
-      <c r="ALF2" s="87"/>
-      <c r="ALG2" s="87"/>
-      <c r="ALH2" s="87"/>
-      <c r="ALI2" s="87"/>
-      <c r="ALJ2" s="87"/>
-      <c r="ALK2" s="87"/>
-      <c r="ALL2" s="87"/>
-      <c r="ALM2" s="87"/>
-      <c r="ALN2" s="87"/>
-      <c r="ALO2" s="87"/>
-      <c r="ALP2" s="87"/>
-      <c r="ALQ2" s="87"/>
-      <c r="ALR2" s="87"/>
-      <c r="ALS2" s="87"/>
-      <c r="ALT2" s="87"/>
-      <c r="ALU2" s="87"/>
-      <c r="ALV2" s="87"/>
-      <c r="ALW2" s="87"/>
-      <c r="ALX2" s="87"/>
-      <c r="ALY2" s="87"/>
-      <c r="ALZ2" s="87"/>
-      <c r="AMA2" s="87"/>
-      <c r="AMB2" s="87"/>
-      <c r="AMC2" s="87"/>
-      <c r="AMD2" s="87"/>
-      <c r="AME2" s="87"/>
-      <c r="AMF2" s="87"/>
-      <c r="AMG2" s="87"/>
-      <c r="AMH2" s="87"/>
-      <c r="AMI2" s="87"/>
-      <c r="AMJ2" s="87"/>
-      <c r="AMK2" s="87"/>
-      <c r="AML2" s="87"/>
-      <c r="AMM2" s="87"/>
-      <c r="AMN2" s="87"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="84"/>
+      <c r="BS2" s="84"/>
+      <c r="BT2" s="84"/>
+      <c r="BU2" s="84"/>
+      <c r="BV2" s="84"/>
+      <c r="BW2" s="84"/>
+      <c r="BX2" s="84"/>
+      <c r="BY2" s="84"/>
+      <c r="BZ2" s="84"/>
+      <c r="CA2" s="84"/>
+      <c r="CB2" s="84"/>
+      <c r="CC2" s="84"/>
+      <c r="CD2" s="84"/>
+      <c r="CE2" s="84"/>
+      <c r="CF2" s="84"/>
+      <c r="CG2" s="84"/>
+      <c r="CH2" s="84"/>
+      <c r="CI2" s="84"/>
+      <c r="CJ2" s="84"/>
+      <c r="CK2" s="84"/>
+      <c r="CL2" s="84"/>
+      <c r="CM2" s="84"/>
+      <c r="CN2" s="84"/>
+      <c r="CO2" s="84"/>
+      <c r="CP2" s="84"/>
+      <c r="CQ2" s="84"/>
+      <c r="CR2" s="84"/>
+      <c r="CS2" s="84"/>
+      <c r="CT2" s="84"/>
+      <c r="CU2" s="84"/>
+      <c r="CV2" s="84"/>
+      <c r="CW2" s="84"/>
+      <c r="CX2" s="84"/>
+      <c r="CY2" s="84"/>
+      <c r="CZ2" s="84"/>
+      <c r="DA2" s="84"/>
+      <c r="DB2" s="84"/>
+      <c r="DC2" s="84"/>
+      <c r="DD2" s="84"/>
+      <c r="DE2" s="84"/>
+      <c r="DF2" s="84"/>
+      <c r="DG2" s="84"/>
+      <c r="DH2" s="84"/>
+      <c r="DI2" s="84"/>
+      <c r="DJ2" s="84"/>
+      <c r="DK2" s="84"/>
+      <c r="DL2" s="84"/>
+      <c r="DM2" s="84"/>
+      <c r="DN2" s="84"/>
+      <c r="DO2" s="84"/>
+      <c r="DP2" s="84"/>
+      <c r="DQ2" s="84"/>
+      <c r="DR2" s="84"/>
+      <c r="DS2" s="84"/>
+      <c r="DT2" s="84"/>
+      <c r="DU2" s="84"/>
+      <c r="DV2" s="84"/>
+      <c r="DW2" s="84"/>
+      <c r="DX2" s="84"/>
+      <c r="DY2" s="84"/>
+      <c r="DZ2" s="84"/>
+      <c r="EA2" s="84"/>
+      <c r="EB2" s="84"/>
+      <c r="EC2" s="84"/>
+      <c r="ED2" s="84"/>
+      <c r="EE2" s="84"/>
+      <c r="EF2" s="84"/>
+      <c r="EG2" s="84"/>
+      <c r="EH2" s="84"/>
+      <c r="EI2" s="84"/>
+      <c r="EJ2" s="84"/>
+      <c r="EK2" s="84"/>
+      <c r="EL2" s="84"/>
+      <c r="EM2" s="84"/>
+      <c r="EN2" s="84"/>
+      <c r="EO2" s="84"/>
+      <c r="EP2" s="84"/>
+      <c r="EQ2" s="84"/>
+      <c r="ER2" s="84"/>
+      <c r="ES2" s="84"/>
+      <c r="ET2" s="84"/>
+      <c r="EU2" s="84"/>
+      <c r="EV2" s="84"/>
+      <c r="EW2" s="84"/>
+      <c r="EX2" s="84"/>
+      <c r="EY2" s="84"/>
+      <c r="EZ2" s="84"/>
+      <c r="FA2" s="84"/>
+      <c r="FB2" s="84"/>
+      <c r="FC2" s="84"/>
+      <c r="FD2" s="84"/>
+      <c r="FE2" s="84"/>
+      <c r="FF2" s="84"/>
+      <c r="FG2" s="84"/>
+      <c r="FH2" s="84"/>
+      <c r="FI2" s="84"/>
+      <c r="FJ2" s="84"/>
+      <c r="FK2" s="84"/>
+      <c r="FL2" s="84"/>
+      <c r="FM2" s="84"/>
+      <c r="FN2" s="84"/>
+      <c r="FO2" s="84"/>
+      <c r="FP2" s="84"/>
+      <c r="FQ2" s="84"/>
+      <c r="FR2" s="84"/>
+      <c r="FS2" s="84"/>
+      <c r="FT2" s="84"/>
+      <c r="FU2" s="84"/>
+      <c r="FV2" s="84"/>
+      <c r="FW2" s="84"/>
+      <c r="FX2" s="84"/>
+      <c r="FY2" s="84"/>
+      <c r="FZ2" s="84"/>
+      <c r="GA2" s="84"/>
+      <c r="GB2" s="84"/>
+      <c r="GC2" s="84"/>
+      <c r="GD2" s="84"/>
+      <c r="GE2" s="84"/>
+      <c r="GF2" s="84"/>
+      <c r="GG2" s="84"/>
+      <c r="GH2" s="84"/>
+      <c r="GI2" s="84"/>
+      <c r="GJ2" s="84"/>
+      <c r="GK2" s="84"/>
+      <c r="GL2" s="84"/>
+      <c r="GM2" s="84"/>
+      <c r="GN2" s="84"/>
+      <c r="GO2" s="84"/>
+      <c r="GP2" s="84"/>
+      <c r="GQ2" s="84"/>
+      <c r="GR2" s="84"/>
+      <c r="GS2" s="84"/>
+      <c r="GT2" s="84"/>
+      <c r="GU2" s="84"/>
+      <c r="GV2" s="84"/>
+      <c r="GW2" s="84"/>
+      <c r="GX2" s="84"/>
+      <c r="GY2" s="84"/>
+      <c r="GZ2" s="84"/>
+      <c r="HA2" s="84"/>
+      <c r="HB2" s="84"/>
+      <c r="HC2" s="84"/>
+      <c r="HD2" s="84"/>
+      <c r="HE2" s="84"/>
+      <c r="HF2" s="84"/>
+      <c r="HG2" s="84"/>
+      <c r="HH2" s="84"/>
+      <c r="HI2" s="84"/>
+      <c r="HJ2" s="84"/>
+      <c r="HK2" s="84"/>
+      <c r="HL2" s="84"/>
+      <c r="HM2" s="84"/>
+      <c r="HN2" s="84"/>
+      <c r="HO2" s="84"/>
+      <c r="HP2" s="84"/>
+      <c r="HQ2" s="84"/>
+      <c r="HR2" s="84"/>
+      <c r="HS2" s="84"/>
+      <c r="HT2" s="84"/>
+      <c r="HU2" s="84"/>
+      <c r="HV2" s="84"/>
+      <c r="HW2" s="84"/>
+      <c r="HX2" s="84"/>
+      <c r="HY2" s="84"/>
+      <c r="HZ2" s="84"/>
+      <c r="IA2" s="84"/>
+      <c r="IB2" s="84"/>
+      <c r="IC2" s="84"/>
+      <c r="ID2" s="84"/>
+      <c r="IE2" s="84"/>
+      <c r="IF2" s="84"/>
+      <c r="IG2" s="84"/>
+      <c r="IH2" s="84"/>
+      <c r="II2" s="84"/>
+      <c r="IJ2" s="84"/>
+      <c r="IK2" s="84"/>
+      <c r="IL2" s="84"/>
+      <c r="IM2" s="84"/>
+      <c r="IN2" s="84"/>
+      <c r="IO2" s="84"/>
+      <c r="IP2" s="84"/>
+      <c r="IQ2" s="84"/>
+      <c r="IR2" s="84"/>
+      <c r="IS2" s="84"/>
+      <c r="IT2" s="84"/>
+      <c r="IU2" s="84"/>
+      <c r="IV2" s="84"/>
+      <c r="IW2" s="84"/>
+      <c r="IX2" s="84"/>
+      <c r="IY2" s="84"/>
+      <c r="IZ2" s="84"/>
+      <c r="JA2" s="84"/>
+      <c r="JB2" s="84"/>
+      <c r="JC2" s="84"/>
+      <c r="JD2" s="84"/>
+      <c r="JE2" s="84"/>
+      <c r="JF2" s="84"/>
+      <c r="JG2" s="84"/>
+      <c r="JH2" s="84"/>
+      <c r="JI2" s="84"/>
+      <c r="JJ2" s="84"/>
+      <c r="JK2" s="84"/>
+      <c r="JL2" s="84"/>
+      <c r="JM2" s="84"/>
+      <c r="JN2" s="84"/>
+      <c r="JO2" s="84"/>
+      <c r="JP2" s="84"/>
+      <c r="JQ2" s="84"/>
+      <c r="JR2" s="84"/>
+      <c r="JS2" s="84"/>
+      <c r="JT2" s="84"/>
+      <c r="JU2" s="84"/>
+      <c r="JV2" s="84"/>
+      <c r="JW2" s="84"/>
+      <c r="JX2" s="84"/>
+      <c r="JY2" s="84"/>
+      <c r="JZ2" s="84"/>
+      <c r="KA2" s="84"/>
+      <c r="KB2" s="84"/>
+      <c r="KC2" s="84"/>
+      <c r="KD2" s="84"/>
+      <c r="KE2" s="84"/>
+      <c r="KF2" s="84"/>
+      <c r="KG2" s="84"/>
+      <c r="KH2" s="84"/>
+      <c r="KI2" s="84"/>
+      <c r="KJ2" s="84"/>
+      <c r="KK2" s="84"/>
+      <c r="KL2" s="84"/>
+      <c r="KM2" s="84"/>
+      <c r="KN2" s="84"/>
+      <c r="KO2" s="84"/>
+      <c r="KP2" s="84"/>
+      <c r="KQ2" s="84"/>
+      <c r="KR2" s="84"/>
+      <c r="KS2" s="84"/>
+      <c r="KT2" s="84"/>
+      <c r="KU2" s="84"/>
+      <c r="KV2" s="84"/>
+      <c r="KW2" s="84"/>
+      <c r="KX2" s="84"/>
+      <c r="KY2" s="84"/>
+      <c r="KZ2" s="84"/>
+      <c r="LA2" s="84"/>
+      <c r="LB2" s="84"/>
+      <c r="LC2" s="84"/>
+      <c r="LD2" s="84"/>
+      <c r="LE2" s="84"/>
+      <c r="LF2" s="84"/>
+      <c r="LG2" s="84"/>
+      <c r="LH2" s="84"/>
+      <c r="LI2" s="84"/>
+      <c r="LJ2" s="84"/>
+      <c r="LK2" s="84"/>
+      <c r="LL2" s="84"/>
+      <c r="LM2" s="84"/>
+      <c r="LN2" s="84"/>
+      <c r="LO2" s="84"/>
+      <c r="LP2" s="84"/>
+      <c r="LQ2" s="84"/>
+      <c r="LR2" s="84"/>
+      <c r="LS2" s="84"/>
+      <c r="LT2" s="84"/>
+      <c r="LU2" s="84"/>
+      <c r="LV2" s="84"/>
+      <c r="LW2" s="84"/>
+      <c r="LX2" s="84"/>
+      <c r="LY2" s="84"/>
+      <c r="LZ2" s="84"/>
+      <c r="MA2" s="84"/>
+      <c r="MB2" s="84"/>
+      <c r="MC2" s="84"/>
+      <c r="MD2" s="84"/>
+      <c r="ME2" s="84"/>
+      <c r="MF2" s="84"/>
+      <c r="MG2" s="84"/>
+      <c r="MH2" s="84"/>
+      <c r="MI2" s="84"/>
+      <c r="MJ2" s="84"/>
+      <c r="MK2" s="84"/>
+      <c r="ML2" s="84"/>
+      <c r="MM2" s="84"/>
+      <c r="MN2" s="84"/>
+      <c r="MO2" s="84"/>
+      <c r="MP2" s="84"/>
+      <c r="MQ2" s="84"/>
+      <c r="MR2" s="84"/>
+      <c r="MS2" s="84"/>
+      <c r="MT2" s="84"/>
+      <c r="MU2" s="84"/>
+      <c r="MV2" s="84"/>
+      <c r="MW2" s="84"/>
+      <c r="MX2" s="84"/>
+      <c r="MY2" s="84"/>
+      <c r="MZ2" s="84"/>
+      <c r="NA2" s="84"/>
+      <c r="NB2" s="84"/>
+      <c r="NC2" s="84"/>
+      <c r="ND2" s="84"/>
+      <c r="NE2" s="84"/>
+      <c r="NF2" s="84"/>
+      <c r="NG2" s="84"/>
+      <c r="NH2" s="84"/>
+      <c r="NI2" s="84"/>
+      <c r="NJ2" s="84"/>
+      <c r="NK2" s="84"/>
+      <c r="NL2" s="84"/>
+      <c r="NM2" s="84"/>
+      <c r="NN2" s="84"/>
+      <c r="NO2" s="84"/>
+      <c r="NP2" s="84"/>
+      <c r="NQ2" s="84"/>
+      <c r="NR2" s="84"/>
+      <c r="NS2" s="84"/>
+      <c r="NT2" s="84"/>
+      <c r="NU2" s="84"/>
+      <c r="NV2" s="84"/>
+      <c r="NW2" s="84"/>
+      <c r="NX2" s="84"/>
+      <c r="NY2" s="84"/>
+      <c r="NZ2" s="84"/>
+      <c r="OA2" s="84"/>
+      <c r="OB2" s="84"/>
+      <c r="OC2" s="84"/>
+      <c r="OD2" s="84"/>
+      <c r="OE2" s="84"/>
+      <c r="OF2" s="84"/>
+      <c r="OG2" s="84"/>
+      <c r="OH2" s="84"/>
+      <c r="OI2" s="84"/>
+      <c r="OJ2" s="84"/>
+      <c r="OK2" s="84"/>
+      <c r="OL2" s="84"/>
+      <c r="OM2" s="84"/>
+      <c r="ON2" s="84"/>
+      <c r="OO2" s="84"/>
+      <c r="OP2" s="84"/>
+      <c r="OQ2" s="84"/>
+      <c r="OR2" s="84"/>
+      <c r="OS2" s="84"/>
+      <c r="OT2" s="84"/>
+      <c r="OU2" s="84"/>
+      <c r="OV2" s="84"/>
+      <c r="OW2" s="84"/>
+      <c r="OX2" s="84"/>
+      <c r="OY2" s="84"/>
+      <c r="OZ2" s="84"/>
+      <c r="PA2" s="84"/>
+      <c r="PB2" s="84"/>
+      <c r="PC2" s="84"/>
+      <c r="PD2" s="84"/>
+      <c r="PE2" s="84"/>
+      <c r="PF2" s="84"/>
+      <c r="PG2" s="84"/>
+      <c r="PH2" s="84"/>
+      <c r="PI2" s="84"/>
+      <c r="PJ2" s="84"/>
+      <c r="PK2" s="84"/>
+      <c r="PL2" s="84"/>
+      <c r="PM2" s="84"/>
+      <c r="PN2" s="84"/>
+      <c r="PO2" s="84"/>
+      <c r="PP2" s="84"/>
+      <c r="PQ2" s="84"/>
+      <c r="PR2" s="84"/>
+      <c r="PS2" s="84"/>
+      <c r="PT2" s="84"/>
+      <c r="PU2" s="84"/>
+      <c r="PV2" s="84"/>
+      <c r="PW2" s="84"/>
+      <c r="PX2" s="84"/>
+      <c r="PY2" s="84"/>
+      <c r="PZ2" s="84"/>
+      <c r="QA2" s="84"/>
+      <c r="QB2" s="84"/>
+      <c r="QC2" s="84"/>
+      <c r="QD2" s="84"/>
+      <c r="QE2" s="84"/>
+      <c r="QF2" s="84"/>
+      <c r="QG2" s="84"/>
+      <c r="QH2" s="84"/>
+      <c r="QI2" s="84"/>
+      <c r="QJ2" s="84"/>
+      <c r="QK2" s="84"/>
+      <c r="QL2" s="84"/>
+      <c r="QM2" s="84"/>
+      <c r="QN2" s="84"/>
+      <c r="QO2" s="84"/>
+      <c r="QP2" s="84"/>
+      <c r="QQ2" s="84"/>
+      <c r="QR2" s="84"/>
+      <c r="QS2" s="84"/>
+      <c r="QT2" s="84"/>
+      <c r="QU2" s="84"/>
+      <c r="QV2" s="84"/>
+      <c r="QW2" s="84"/>
+      <c r="QX2" s="84"/>
+      <c r="QY2" s="84"/>
+      <c r="QZ2" s="84"/>
+      <c r="RA2" s="84"/>
+      <c r="RB2" s="84"/>
+      <c r="RC2" s="84"/>
+      <c r="RD2" s="84"/>
+      <c r="RE2" s="84"/>
+      <c r="RF2" s="84"/>
+      <c r="RG2" s="84"/>
+      <c r="RH2" s="84"/>
+      <c r="RI2" s="84"/>
+      <c r="RJ2" s="84"/>
+      <c r="RK2" s="84"/>
+      <c r="RL2" s="84"/>
+      <c r="RM2" s="84"/>
+      <c r="RN2" s="84"/>
+      <c r="RO2" s="84"/>
+      <c r="RP2" s="84"/>
+      <c r="RQ2" s="84"/>
+      <c r="RR2" s="84"/>
+      <c r="RS2" s="84"/>
+      <c r="RT2" s="84"/>
+      <c r="RU2" s="84"/>
+      <c r="RV2" s="84"/>
+      <c r="RW2" s="84"/>
+      <c r="RX2" s="84"/>
+      <c r="RY2" s="84"/>
+      <c r="RZ2" s="84"/>
+      <c r="SA2" s="84"/>
+      <c r="SB2" s="84"/>
+      <c r="SC2" s="84"/>
+      <c r="SD2" s="84"/>
+      <c r="SE2" s="84"/>
+      <c r="SF2" s="84"/>
+      <c r="SG2" s="84"/>
+      <c r="SH2" s="84"/>
+      <c r="SI2" s="84"/>
+      <c r="SJ2" s="84"/>
+      <c r="SK2" s="84"/>
+      <c r="SL2" s="84"/>
+      <c r="SM2" s="84"/>
+      <c r="SN2" s="84"/>
+      <c r="SO2" s="84"/>
+      <c r="SP2" s="84"/>
+      <c r="SQ2" s="84"/>
+      <c r="SR2" s="84"/>
+      <c r="SS2" s="84"/>
+      <c r="ST2" s="84"/>
+      <c r="SU2" s="84"/>
+      <c r="SV2" s="84"/>
+      <c r="SW2" s="84"/>
+      <c r="SX2" s="84"/>
+      <c r="SY2" s="84"/>
+      <c r="SZ2" s="84"/>
+      <c r="TA2" s="84"/>
+      <c r="TB2" s="84"/>
+      <c r="TC2" s="84"/>
+      <c r="TD2" s="84"/>
+      <c r="TE2" s="84"/>
+      <c r="TF2" s="84"/>
+      <c r="TG2" s="84"/>
+      <c r="TH2" s="84"/>
+      <c r="TI2" s="84"/>
+      <c r="TJ2" s="84"/>
+      <c r="TK2" s="84"/>
+      <c r="TL2" s="84"/>
+      <c r="TM2" s="84"/>
+      <c r="TN2" s="84"/>
+      <c r="TO2" s="84"/>
+      <c r="TP2" s="84"/>
+      <c r="TQ2" s="84"/>
+      <c r="TR2" s="84"/>
+      <c r="TS2" s="84"/>
+      <c r="TT2" s="84"/>
+      <c r="TU2" s="84"/>
+      <c r="TV2" s="84"/>
+      <c r="TW2" s="84"/>
+      <c r="TX2" s="84"/>
+      <c r="TY2" s="84"/>
+      <c r="TZ2" s="84"/>
+      <c r="UA2" s="84"/>
+      <c r="UB2" s="84"/>
+      <c r="UC2" s="84"/>
+      <c r="UD2" s="84"/>
+      <c r="UE2" s="84"/>
+      <c r="UF2" s="84"/>
+      <c r="UG2" s="84"/>
+      <c r="UH2" s="84"/>
+      <c r="UI2" s="84"/>
+      <c r="UJ2" s="84"/>
+      <c r="UK2" s="84"/>
+      <c r="UL2" s="84"/>
+      <c r="UM2" s="84"/>
+      <c r="UN2" s="84"/>
+      <c r="UO2" s="84"/>
+      <c r="UP2" s="84"/>
+      <c r="UQ2" s="84"/>
+      <c r="UR2" s="84"/>
+      <c r="US2" s="84"/>
+      <c r="UT2" s="84"/>
+      <c r="UU2" s="84"/>
+      <c r="UV2" s="84"/>
+      <c r="UW2" s="84"/>
+      <c r="UX2" s="84"/>
+      <c r="UY2" s="84"/>
+      <c r="UZ2" s="84"/>
+      <c r="VA2" s="84"/>
+      <c r="VB2" s="84"/>
+      <c r="VC2" s="84"/>
+      <c r="VD2" s="84"/>
+      <c r="VE2" s="84"/>
+      <c r="VF2" s="84"/>
+      <c r="VG2" s="84"/>
+      <c r="VH2" s="84"/>
+      <c r="VI2" s="84"/>
+      <c r="VJ2" s="84"/>
+      <c r="VK2" s="84"/>
+      <c r="VL2" s="84"/>
+      <c r="VM2" s="84"/>
+      <c r="VN2" s="84"/>
+      <c r="VO2" s="84"/>
+      <c r="VP2" s="84"/>
+      <c r="VQ2" s="84"/>
+      <c r="VR2" s="84"/>
+      <c r="VS2" s="84"/>
+      <c r="VT2" s="84"/>
+      <c r="VU2" s="84"/>
+      <c r="VV2" s="84"/>
+      <c r="VW2" s="84"/>
+      <c r="VX2" s="84"/>
+      <c r="VY2" s="84"/>
+      <c r="VZ2" s="84"/>
+      <c r="WA2" s="84"/>
+      <c r="WB2" s="84"/>
+      <c r="WC2" s="84"/>
+      <c r="WD2" s="84"/>
+      <c r="WE2" s="84"/>
+      <c r="WF2" s="84"/>
+      <c r="WG2" s="84"/>
+      <c r="WH2" s="84"/>
+      <c r="WI2" s="84"/>
+      <c r="WJ2" s="84"/>
+      <c r="WK2" s="84"/>
+      <c r="WL2" s="84"/>
+      <c r="WM2" s="84"/>
+      <c r="WN2" s="84"/>
+      <c r="WO2" s="84"/>
+      <c r="WP2" s="84"/>
+      <c r="WQ2" s="84"/>
+      <c r="WR2" s="84"/>
+      <c r="WS2" s="84"/>
+      <c r="WT2" s="84"/>
+      <c r="WU2" s="84"/>
+      <c r="WV2" s="84"/>
+      <c r="WW2" s="84"/>
+      <c r="WX2" s="84"/>
+      <c r="WY2" s="84"/>
+      <c r="WZ2" s="84"/>
+      <c r="XA2" s="84"/>
+      <c r="XB2" s="84"/>
+      <c r="XC2" s="84"/>
+      <c r="XD2" s="84"/>
+      <c r="XE2" s="84"/>
+      <c r="XF2" s="84"/>
+      <c r="XG2" s="84"/>
+      <c r="XH2" s="84"/>
+      <c r="XI2" s="84"/>
+      <c r="XJ2" s="84"/>
+      <c r="XK2" s="84"/>
+      <c r="XL2" s="84"/>
+      <c r="XM2" s="84"/>
+      <c r="XN2" s="84"/>
+      <c r="XO2" s="84"/>
+      <c r="XP2" s="84"/>
+      <c r="XQ2" s="84"/>
+      <c r="XR2" s="84"/>
+      <c r="XS2" s="84"/>
+      <c r="XT2" s="84"/>
+      <c r="XU2" s="84"/>
+      <c r="XV2" s="84"/>
+      <c r="XW2" s="84"/>
+      <c r="XX2" s="84"/>
+      <c r="XY2" s="84"/>
+      <c r="XZ2" s="84"/>
+      <c r="YA2" s="84"/>
+      <c r="YB2" s="84"/>
+      <c r="YC2" s="84"/>
+      <c r="YD2" s="84"/>
+      <c r="YE2" s="84"/>
+      <c r="YF2" s="84"/>
+      <c r="YG2" s="84"/>
+      <c r="YH2" s="84"/>
+      <c r="YI2" s="84"/>
+      <c r="YJ2" s="84"/>
+      <c r="YK2" s="84"/>
+      <c r="YL2" s="84"/>
+      <c r="YM2" s="84"/>
+      <c r="YN2" s="84"/>
+      <c r="YO2" s="84"/>
+      <c r="YP2" s="84"/>
+      <c r="YQ2" s="84"/>
+      <c r="YR2" s="84"/>
+      <c r="YS2" s="84"/>
+      <c r="YT2" s="84"/>
+      <c r="YU2" s="84"/>
+      <c r="YV2" s="84"/>
+      <c r="YW2" s="84"/>
+      <c r="YX2" s="84"/>
+      <c r="YY2" s="84"/>
+      <c r="YZ2" s="84"/>
+      <c r="ZA2" s="84"/>
+      <c r="ZB2" s="84"/>
+      <c r="ZC2" s="84"/>
+      <c r="ZD2" s="84"/>
+      <c r="ZE2" s="84"/>
+      <c r="ZF2" s="84"/>
+      <c r="ZG2" s="84"/>
+      <c r="ZH2" s="84"/>
+      <c r="ZI2" s="84"/>
+      <c r="ZJ2" s="84"/>
+      <c r="ZK2" s="84"/>
+      <c r="ZL2" s="84"/>
+      <c r="ZM2" s="84"/>
+      <c r="ZN2" s="84"/>
+      <c r="ZO2" s="84"/>
+      <c r="ZP2" s="84"/>
+      <c r="ZQ2" s="84"/>
+      <c r="ZR2" s="84"/>
+      <c r="ZS2" s="84"/>
+      <c r="ZT2" s="84"/>
+      <c r="ZU2" s="84"/>
+      <c r="ZV2" s="84"/>
+      <c r="ZW2" s="84"/>
+      <c r="ZX2" s="84"/>
+      <c r="ZY2" s="84"/>
+      <c r="ZZ2" s="84"/>
+      <c r="AAA2" s="84"/>
+      <c r="AAB2" s="84"/>
+      <c r="AAC2" s="84"/>
+      <c r="AAD2" s="84"/>
+      <c r="AAE2" s="84"/>
+      <c r="AAF2" s="84"/>
+      <c r="AAG2" s="84"/>
+      <c r="AAH2" s="84"/>
+      <c r="AAI2" s="84"/>
+      <c r="AAJ2" s="84"/>
+      <c r="AAK2" s="84"/>
+      <c r="AAL2" s="84"/>
+      <c r="AAM2" s="84"/>
+      <c r="AAN2" s="84"/>
+      <c r="AAO2" s="84"/>
+      <c r="AAP2" s="84"/>
+      <c r="AAQ2" s="84"/>
+      <c r="AAR2" s="84"/>
+      <c r="AAS2" s="84"/>
+      <c r="AAT2" s="84"/>
+      <c r="AAU2" s="84"/>
+      <c r="AAV2" s="84"/>
+      <c r="AAW2" s="84"/>
+      <c r="AAX2" s="84"/>
+      <c r="AAY2" s="84"/>
+      <c r="AAZ2" s="84"/>
+      <c r="ABA2" s="84"/>
+      <c r="ABB2" s="84"/>
+      <c r="ABC2" s="84"/>
+      <c r="ABD2" s="84"/>
+      <c r="ABE2" s="84"/>
+      <c r="ABF2" s="84"/>
+      <c r="ABG2" s="84"/>
+      <c r="ABH2" s="84"/>
+      <c r="ABI2" s="84"/>
+      <c r="ABJ2" s="84"/>
+      <c r="ABK2" s="84"/>
+      <c r="ABL2" s="84"/>
+      <c r="ABM2" s="84"/>
+      <c r="ABN2" s="84"/>
+      <c r="ABO2" s="84"/>
+      <c r="ABP2" s="84"/>
+      <c r="ABQ2" s="84"/>
+      <c r="ABR2" s="84"/>
+      <c r="ABS2" s="84"/>
+      <c r="ABT2" s="84"/>
+      <c r="ABU2" s="84"/>
+      <c r="ABV2" s="84"/>
+      <c r="ABW2" s="84"/>
+      <c r="ABX2" s="84"/>
+      <c r="ABY2" s="84"/>
+      <c r="ABZ2" s="84"/>
+      <c r="ACA2" s="84"/>
+      <c r="ACB2" s="84"/>
+      <c r="ACC2" s="84"/>
+      <c r="ACD2" s="84"/>
+      <c r="ACE2" s="84"/>
+      <c r="ACF2" s="84"/>
+      <c r="ACG2" s="84"/>
+      <c r="ACH2" s="84"/>
+      <c r="ACI2" s="84"/>
+      <c r="ACJ2" s="84"/>
+      <c r="ACK2" s="84"/>
+      <c r="ACL2" s="84"/>
+      <c r="ACM2" s="84"/>
+      <c r="ACN2" s="84"/>
+      <c r="ACO2" s="84"/>
+      <c r="ACP2" s="84"/>
+      <c r="ACQ2" s="84"/>
+      <c r="ACR2" s="84"/>
+      <c r="ACS2" s="84"/>
+      <c r="ACT2" s="84"/>
+      <c r="ACU2" s="84"/>
+      <c r="ACV2" s="84"/>
+      <c r="ACW2" s="84"/>
+      <c r="ACX2" s="84"/>
+      <c r="ACY2" s="84"/>
+      <c r="ACZ2" s="84"/>
+      <c r="ADA2" s="84"/>
+      <c r="ADB2" s="84"/>
+      <c r="ADC2" s="84"/>
+      <c r="ADD2" s="84"/>
+      <c r="ADE2" s="84"/>
+      <c r="ADF2" s="84"/>
+      <c r="ADG2" s="84"/>
+      <c r="ADH2" s="84"/>
+      <c r="ADI2" s="84"/>
+      <c r="ADJ2" s="84"/>
+      <c r="ADK2" s="84"/>
+      <c r="ADL2" s="84"/>
+      <c r="ADM2" s="84"/>
+      <c r="ADN2" s="84"/>
+      <c r="ADO2" s="84"/>
+      <c r="ADP2" s="84"/>
+      <c r="ADQ2" s="84"/>
+      <c r="ADR2" s="84"/>
+      <c r="ADS2" s="84"/>
+      <c r="ADT2" s="84"/>
+      <c r="ADU2" s="84"/>
+      <c r="ADV2" s="84"/>
+      <c r="ADW2" s="84"/>
+      <c r="ADX2" s="84"/>
+      <c r="ADY2" s="84"/>
+      <c r="ADZ2" s="84"/>
+      <c r="AEA2" s="84"/>
+      <c r="AEB2" s="84"/>
+      <c r="AEC2" s="84"/>
+      <c r="AED2" s="84"/>
+      <c r="AEE2" s="84"/>
+      <c r="AEF2" s="84"/>
+      <c r="AEG2" s="84"/>
+      <c r="AEH2" s="84"/>
+      <c r="AEI2" s="84"/>
+      <c r="AEJ2" s="84"/>
+      <c r="AEK2" s="84"/>
+      <c r="AEL2" s="84"/>
+      <c r="AEM2" s="84"/>
+      <c r="AEN2" s="84"/>
+      <c r="AEO2" s="84"/>
+      <c r="AEP2" s="84"/>
+      <c r="AEQ2" s="84"/>
+      <c r="AER2" s="84"/>
+      <c r="AES2" s="84"/>
+      <c r="AET2" s="84"/>
+      <c r="AEU2" s="84"/>
+      <c r="AEV2" s="84"/>
+      <c r="AEW2" s="84"/>
+      <c r="AEX2" s="84"/>
+      <c r="AEY2" s="84"/>
+      <c r="AEZ2" s="84"/>
+      <c r="AFA2" s="84"/>
+      <c r="AFB2" s="84"/>
+      <c r="AFC2" s="84"/>
+      <c r="AFD2" s="84"/>
+      <c r="AFE2" s="84"/>
+      <c r="AFF2" s="84"/>
+      <c r="AFG2" s="84"/>
+      <c r="AFH2" s="84"/>
+      <c r="AFI2" s="84"/>
+      <c r="AFJ2" s="84"/>
+      <c r="AFK2" s="84"/>
+      <c r="AFL2" s="84"/>
+      <c r="AFM2" s="84"/>
+      <c r="AFN2" s="84"/>
+      <c r="AFO2" s="84"/>
+      <c r="AFP2" s="84"/>
+      <c r="AFQ2" s="84"/>
+      <c r="AFR2" s="84"/>
+      <c r="AFS2" s="84"/>
+      <c r="AFT2" s="84"/>
+      <c r="AFU2" s="84"/>
+      <c r="AFV2" s="84"/>
+      <c r="AFW2" s="84"/>
+      <c r="AFX2" s="84"/>
+      <c r="AFY2" s="84"/>
+      <c r="AFZ2" s="84"/>
+      <c r="AGA2" s="84"/>
+      <c r="AGB2" s="84"/>
+      <c r="AGC2" s="84"/>
+      <c r="AGD2" s="84"/>
+      <c r="AGE2" s="84"/>
+      <c r="AGF2" s="84"/>
+      <c r="AGG2" s="84"/>
+      <c r="AGH2" s="84"/>
+      <c r="AGI2" s="84"/>
+      <c r="AGJ2" s="84"/>
+      <c r="AGK2" s="84"/>
+      <c r="AGL2" s="84"/>
+      <c r="AGM2" s="84"/>
+      <c r="AGN2" s="84"/>
+      <c r="AGO2" s="84"/>
+      <c r="AGP2" s="84"/>
+      <c r="AGQ2" s="84"/>
+      <c r="AGR2" s="84"/>
+      <c r="AGS2" s="84"/>
+      <c r="AGT2" s="84"/>
+      <c r="AGU2" s="84"/>
+      <c r="AGV2" s="84"/>
+      <c r="AGW2" s="84"/>
+      <c r="AGX2" s="84"/>
+      <c r="AGY2" s="84"/>
+      <c r="AGZ2" s="84"/>
+      <c r="AHA2" s="84"/>
+      <c r="AHB2" s="84"/>
+      <c r="AHC2" s="84"/>
+      <c r="AHD2" s="84"/>
+      <c r="AHE2" s="84"/>
+      <c r="AHF2" s="84"/>
+      <c r="AHG2" s="84"/>
+      <c r="AHH2" s="84"/>
+      <c r="AHI2" s="84"/>
+      <c r="AHJ2" s="84"/>
+      <c r="AHK2" s="84"/>
+      <c r="AHL2" s="84"/>
+      <c r="AHM2" s="84"/>
+      <c r="AHN2" s="84"/>
+      <c r="AHO2" s="84"/>
+      <c r="AHP2" s="84"/>
+      <c r="AHQ2" s="84"/>
+      <c r="AHR2" s="84"/>
+      <c r="AHS2" s="84"/>
+      <c r="AHT2" s="84"/>
+      <c r="AHU2" s="84"/>
+      <c r="AHV2" s="84"/>
+      <c r="AHW2" s="84"/>
+      <c r="AHX2" s="84"/>
+      <c r="AHY2" s="84"/>
+      <c r="AHZ2" s="84"/>
+      <c r="AIA2" s="84"/>
+      <c r="AIB2" s="84"/>
+      <c r="AIC2" s="84"/>
+      <c r="AID2" s="84"/>
+      <c r="AIE2" s="84"/>
+      <c r="AIF2" s="84"/>
+      <c r="AIG2" s="84"/>
+      <c r="AIH2" s="84"/>
+      <c r="AII2" s="84"/>
+      <c r="AIJ2" s="84"/>
+      <c r="AIK2" s="84"/>
+      <c r="AIL2" s="84"/>
+      <c r="AIM2" s="84"/>
+      <c r="AIN2" s="84"/>
+      <c r="AIO2" s="84"/>
+      <c r="AIP2" s="84"/>
+      <c r="AIQ2" s="84"/>
+      <c r="AIR2" s="84"/>
+      <c r="AIS2" s="84"/>
+      <c r="AIT2" s="84"/>
+      <c r="AIU2" s="84"/>
+      <c r="AIV2" s="84"/>
+      <c r="AIW2" s="84"/>
+      <c r="AIX2" s="84"/>
+      <c r="AIY2" s="84"/>
+      <c r="AIZ2" s="84"/>
+      <c r="AJA2" s="84"/>
+      <c r="AJB2" s="84"/>
+      <c r="AJC2" s="84"/>
+      <c r="AJD2" s="84"/>
+      <c r="AJE2" s="84"/>
+      <c r="AJF2" s="84"/>
+      <c r="AJG2" s="84"/>
+      <c r="AJH2" s="84"/>
+      <c r="AJI2" s="84"/>
+      <c r="AJJ2" s="84"/>
+      <c r="AJK2" s="84"/>
+      <c r="AJL2" s="84"/>
+      <c r="AJM2" s="84"/>
+      <c r="AJN2" s="84"/>
+      <c r="AJO2" s="84"/>
+      <c r="AJP2" s="84"/>
+      <c r="AJQ2" s="84"/>
+      <c r="AJR2" s="84"/>
+      <c r="AJS2" s="84"/>
+      <c r="AJT2" s="84"/>
+      <c r="AJU2" s="84"/>
+      <c r="AJV2" s="84"/>
+      <c r="AJW2" s="84"/>
+      <c r="AJX2" s="84"/>
+      <c r="AJY2" s="84"/>
+      <c r="AJZ2" s="84"/>
+      <c r="AKA2" s="84"/>
+      <c r="AKB2" s="84"/>
+      <c r="AKC2" s="84"/>
+      <c r="AKD2" s="84"/>
+      <c r="AKE2" s="84"/>
+      <c r="AKF2" s="84"/>
+      <c r="AKG2" s="84"/>
+      <c r="AKH2" s="84"/>
+      <c r="AKI2" s="84"/>
+      <c r="AKJ2" s="84"/>
+      <c r="AKK2" s="84"/>
+      <c r="AKL2" s="84"/>
+      <c r="AKM2" s="84"/>
+      <c r="AKN2" s="84"/>
+      <c r="AKO2" s="84"/>
+      <c r="AKP2" s="84"/>
+      <c r="AKQ2" s="84"/>
+      <c r="AKR2" s="84"/>
+      <c r="AKS2" s="84"/>
+      <c r="AKT2" s="84"/>
+      <c r="AKU2" s="84"/>
+      <c r="AKV2" s="84"/>
+      <c r="AKW2" s="84"/>
+      <c r="AKX2" s="84"/>
+      <c r="AKY2" s="84"/>
+      <c r="AKZ2" s="84"/>
+      <c r="ALA2" s="84"/>
+      <c r="ALB2" s="84"/>
+      <c r="ALC2" s="84"/>
+      <c r="ALD2" s="84"/>
+      <c r="ALE2" s="84"/>
+      <c r="ALF2" s="84"/>
+      <c r="ALG2" s="84"/>
+      <c r="ALH2" s="84"/>
+      <c r="ALI2" s="84"/>
+      <c r="ALJ2" s="84"/>
+      <c r="ALK2" s="84"/>
+      <c r="ALL2" s="84"/>
+      <c r="ALM2" s="84"/>
+      <c r="ALN2" s="84"/>
+      <c r="ALO2" s="84"/>
+      <c r="ALP2" s="84"/>
+      <c r="ALQ2" s="84"/>
+      <c r="ALR2" s="84"/>
+      <c r="ALS2" s="84"/>
+      <c r="ALT2" s="84"/>
+      <c r="ALU2" s="84"/>
+      <c r="ALV2" s="84"/>
+      <c r="ALW2" s="84"/>
+      <c r="ALX2" s="84"/>
+      <c r="ALY2" s="84"/>
+      <c r="ALZ2" s="84"/>
+      <c r="AMA2" s="84"/>
+      <c r="AMB2" s="84"/>
+      <c r="AMC2" s="84"/>
+      <c r="AMD2" s="84"/>
+      <c r="AME2" s="84"/>
+      <c r="AMF2" s="84"/>
+      <c r="AMG2" s="84"/>
+      <c r="AMH2" s="84"/>
+      <c r="AMI2" s="84"/>
+      <c r="AMJ2" s="84"/>
+      <c r="AMK2" s="84"/>
+      <c r="AML2" s="84"/>
+      <c r="AMM2" s="84"/>
+      <c r="AMN2" s="84"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
@@ -7401,29 +8516,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -7506,42 +8621,42 @@
       <c r="AMM1" s="64"/>
     </row>
     <row r="2" spans="1:14 1026:1027" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="106" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="106">
+      <c r="G2" s="101">
         <v>652</v>
       </c>
-      <c r="H2" s="106">
+      <c r="H2" s="101">
         <v>1249</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="AML2" s="104"/>
-      <c r="AMM2" s="104"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="AML2" s="99"/>
+      <c r="AMM2" s="99"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>

--- a/kbs/kb_min.xlsx
+++ b/kbs/kb_min.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="435" windowWidth="23250" windowHeight="12030" tabRatio="1000" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="435" windowWidth="23250" windowHeight="12030" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="1" r:id="rId1"/>
@@ -31,55 +31,55 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cell!$A$1:$B$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Chromosome features'!$G$1:$G$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Complexes!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Genes!$A$1:$K$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KB!$A$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Proteins!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Reactions!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">RNAs!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Transcription units'!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$N$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$L$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">Genes!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Reactions!$A$1:$P$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$N$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$L$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">Genes!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="9">Proteins!$A$1:$K$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Reactions!$A$1:$P$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$N$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$P$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Complexes!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">Genes!$O$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Reactions!$A$1:$P$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Reactions!$A$1:$O$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Transcription units'!$A$1:$M$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">Genes!$A$1:$L$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">Genes!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">Genes!$P$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">Genes!$O$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">Genes!$A$1:$L$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">Genes!$A$1:$K$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">Genes!$P$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">Genes!$O$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$K$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="8">RNAs!$A$1:$J$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="0">KB!$A$1:$B$2</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="1">Cell!$A$1:$B$1</definedName>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="212">
   <si>
     <t>Id</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Volumetric fraction</t>
   </si>
   <si>
-    <t>Database references</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
@@ -184,12 +181,6 @@
     <t>Polymer</t>
   </si>
   <si>
-    <t>Coordinate</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>DnaABox</t>
   </si>
   <si>
-    <t>forward</t>
-  </si>
-  <si>
     <t>PUB_0932</t>
   </si>
   <si>
@@ -262,9 +250,6 @@
     <t>Homologs</t>
   </si>
   <si>
-    <t>cog category</t>
-  </si>
-  <si>
     <t>Is essential</t>
   </si>
   <si>
@@ -325,21 +310,12 @@
     <t>conc_Rna_1_A_c</t>
   </si>
   <si>
-    <t>Localization</t>
-  </si>
-  <si>
     <t>Gene</t>
   </si>
   <si>
     <t>Is methionine cleaved</t>
   </si>
   <si>
-    <t>Dna footprint binding</t>
-  </si>
-  <si>
-    <t>Dna footprint length</t>
-  </si>
-  <si>
     <t>ProtMon_MPN001</t>
   </si>
   <si>
@@ -412,9 +388,6 @@
     <t>Expression</t>
   </si>
   <si>
-    <t>Submodel</t>
-  </si>
-  <si>
     <t>Participants</t>
   </si>
   <si>
@@ -746,6 +719,12 @@
   </si>
   <si>
     <t>prop_ProtMon_MPN001_half_life, prop_ProtMon_MPN001_localization, prop_ProtMon_MPN001_methionine_cleaved, prop_ProtMon_MPN001_translation_rate</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>COG</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1335,6 +1314,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -1684,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1778,28 +1760,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="37" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>14</v>
       </c>
       <c r="K1" s="37" t="s">
         <v>9</v>
@@ -1808,32 +1790,32 @@
     </row>
     <row r="2" spans="1:1023" s="135" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" s="133" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="134" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G2" s="135" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I2" s="135" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J2" s="133" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K2" s="134"/>
       <c r="L2" s="2"/>
@@ -2862,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AML1"/>
+  <dimension ref="A1:AMI1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD197"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,66 +2856,56 @@
     <col min="2" max="2" width="40.7109375" style="48" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="47" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="49" customWidth="1"/>
-    <col min="5" max="7" width="15.7109375" style="47" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" style="50" customWidth="1"/>
-    <col min="9" max="10" width="20.7109375" style="51" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="47" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="52" customWidth="1"/>
-    <col min="13" max="14" width="15.7109375" style="65" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" style="52" customWidth="1"/>
-    <col min="16" max="1024" width="33.5703125" style="65" customWidth="1"/>
-    <col min="1025" max="1029" width="33.5703125" style="52" customWidth="1"/>
-    <col min="1030" max="16384" width="33.5703125" style="52"/>
+    <col min="5" max="5" width="20.7109375" style="51" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" style="50" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="52" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="65" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" style="52" customWidth="1"/>
+    <col min="13" max="1021" width="33.5703125" style="65" customWidth="1"/>
+    <col min="1022" max="1026" width="33.5703125" style="52" customWidth="1"/>
+    <col min="1027" max="16384" width="33.5703125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14 1025:1026" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>81</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>210</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="AMK1" s="59"/>
-      <c r="AML1" s="59"/>
+      <c r="AMH1" s="59"/>
+      <c r="AMI1" s="59"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -2943,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2964,28 +2936,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>9</v>
@@ -2993,131 +2965,131 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="109" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D2" s="124" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F2" s="124" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J2" s="109"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="109" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" s="109" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" s="124" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D3" s="124">
         <v>4.8828698208797903</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F3" s="124" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G3" s="109" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J3" s="109"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="109" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D4" s="124">
         <v>992.98255190377824</v>
       </c>
       <c r="E4" s="124" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F4" s="124" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G4" s="109" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="109" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="124" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F5" s="124" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="109" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D6" s="124" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="124" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F6" s="124" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="109" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D7" s="124">
         <v>5</v>
       </c>
       <c r="E7" s="124" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F7" s="124" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3246,25 +3218,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>96</v>
-      </c>
       <c r="D1" s="36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>14</v>
       </c>
       <c r="H1" s="36" t="s">
         <v>9</v>
@@ -3272,53 +3244,53 @@
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C2" s="96">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C3" s="104">
         <v>2.2584973866611409E-2</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="112" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C4" s="112">
         <v>489.45</v>
       </c>
       <c r="D4" s="112" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E4" s="112" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
@@ -3332,17 +3304,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:AMI1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.7109375" style="52" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="15" customWidth="1"/>
-    <col min="8" max="1024" width="9.140625" style="52" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" style="52" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="52" customWidth="1"/>
+    <col min="8" max="1023" width="9.140625" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3353,19 +3326,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3380,27 +3353,27 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMO2"/>
+  <dimension ref="A1:AMN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.7109375" style="27" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="72" style="27" customWidth="1"/>
-    <col min="7" max="11" width="15.7109375" style="27" customWidth="1"/>
-    <col min="12" max="15" width="20.7109375" style="27" customWidth="1"/>
-    <col min="16" max="19" width="9" style="27" customWidth="1"/>
-    <col min="20" max="1028" width="37.85546875" style="27" customWidth="1"/>
-    <col min="1029" max="1030" width="8.5703125" style="27" customWidth="1"/>
-    <col min="1031" max="1041" width="9" style="27" customWidth="1"/>
-    <col min="1042" max="16384" width="9" style="27"/>
+    <col min="3" max="4" width="15.7109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="72" style="27" customWidth="1"/>
+    <col min="6" max="10" width="15.7109375" style="27" customWidth="1"/>
+    <col min="11" max="14" width="20.7109375" style="27" customWidth="1"/>
+    <col min="15" max="18" width="9" style="27" customWidth="1"/>
+    <col min="19" max="1027" width="37.85546875" style="27" customWidth="1"/>
+    <col min="1028" max="1029" width="8.5703125" style="27" customWidth="1"/>
+    <col min="1030" max="1040" width="9" style="27" customWidth="1"/>
+    <col min="1041" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15 1029:1029" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14 1028:1028" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -3408,84 +3381,80 @@
         <v>1</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>107</v>
+        <v>28</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>210</v>
       </c>
       <c r="M1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AMO1" s="40"/>
-    </row>
-    <row r="2" spans="1:15 1029:1029" ht="15" x14ac:dyDescent="0.25">
+      <c r="AMN1" s="40"/>
+    </row>
+    <row r="2" spans="1:14 1028:1028" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C2" s="115"/>
       <c r="D2" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="115" t="b">
+        <v>61</v>
+      </c>
+      <c r="E2" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="115" t="b">
+      <c r="I2" s="115" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115" t="s">
-        <v>116</v>
-      </c>
+      <c r="J2" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="115"/>
       <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
+      <c r="M2" s="115" t="s">
+        <v>67</v>
+      </c>
       <c r="N2" s="115" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="AMO2" s="115"/>
+        <v>108</v>
+      </c>
+      <c r="AMN2" s="115"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:K1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -3500,16 +3469,17 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20.7109375" style="65" customWidth="1"/>
-    <col min="7" max="8" width="20.7109375" style="3" customWidth="1"/>
-    <col min="9" max="1026" width="9.140625" style="65" customWidth="1"/>
-    <col min="1027" max="1037" width="9" style="65" customWidth="1"/>
-    <col min="1038" max="16384" width="9" style="65"/>
+    <col min="1" max="5" width="20.7109375" style="65" customWidth="1"/>
+    <col min="6" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="65" customWidth="1"/>
+    <col min="9" max="1024" width="9.140625" style="65" customWidth="1"/>
+    <col min="1025" max="1035" width="9" style="65" customWidth="1"/>
+    <col min="1036" max="16384" width="9" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3517,25 +3487,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3576,22 +3546,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>14</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>9</v>
@@ -3599,17 +3569,17 @@
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B2" s="117" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C2" s="117"/>
       <c r="D2" s="117">
         <v>2</v>
       </c>
       <c r="E2" s="117" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3639,28 +3609,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>9</v>
@@ -3668,25 +3638,25 @@
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" s="91" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="91" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E2" s="91">
         <v>1</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H2" s="90"/>
       <c r="I2" s="90"/>
@@ -3694,25 +3664,25 @@
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B3" s="98" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E3" s="98">
         <v>992.98255190377802</v>
       </c>
       <c r="F3" s="98" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G3" s="98" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
@@ -3720,53 +3690,53 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E4" s="103">
         <v>489.45</v>
       </c>
       <c r="F4" s="103" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G4" s="103" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
       <c r="J4" s="102" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="105" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B5" s="106" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E5" s="106">
         <v>5.5313109099319684</v>
       </c>
       <c r="F5" s="106" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G5" s="106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H5" s="105"/>
       <c r="I5" s="105"/>
@@ -3774,25 +3744,25 @@
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="107" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B6" s="108" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="108" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G6" s="108" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H6" s="107"/>
       <c r="I6" s="107"/>
@@ -3800,53 +3770,53 @@
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B7" s="108" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E7" s="108">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G7" s="108" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H7" s="107"/>
       <c r="I7" s="107"/>
       <c r="J7" s="107" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="110" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B8" s="111" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="111" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" s="111" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E8" s="111">
         <v>4.8828698208797903</v>
       </c>
       <c r="F8" s="111" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G8" s="111" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>
@@ -3854,25 +3824,25 @@
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B9" s="114" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="114" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="114" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E9" s="114">
         <v>2.2584973866611409E-2</v>
       </c>
       <c r="F9" s="114" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G9" s="114" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
@@ -3909,40 +3879,40 @@
   <sheetData>
     <row r="1" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>14</v>
       </c>
       <c r="M1" s="34" t="s">
         <v>9</v>
@@ -3950,105 +3920,105 @@
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B2" s="118"/>
       <c r="C2" s="118"/>
       <c r="D2" s="118"/>
       <c r="E2" s="118" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F2" s="120" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G2" s="120" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H2" s="120">
         <v>37</v>
       </c>
       <c r="I2" s="119" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J2" s="118"/>
       <c r="K2" s="118"/>
       <c r="L2" s="118" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M2" s="118"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
       <c r="D3" s="118"/>
       <c r="E3" s="118" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F3" s="120" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G3" s="120" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H3" s="120">
         <v>37</v>
       </c>
       <c r="I3" s="120" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J3" s="118"/>
       <c r="K3" s="118"/>
       <c r="L3" s="118" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M3" s="118" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="118" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B4" s="118"/>
       <c r="C4" s="118"/>
       <c r="D4" s="118"/>
       <c r="E4" s="118" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F4" s="120" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G4" s="120" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H4" s="120">
         <v>37</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J4" s="118"/>
       <c r="K4" s="118"/>
       <c r="L4" s="118" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B5" s="118"/>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
       <c r="E5" s="118" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F5" s="120" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G5" s="118"/>
       <c r="H5" s="118"/>
@@ -4056,22 +4026,22 @@
       <c r="J5" s="118"/>
       <c r="K5" s="118"/>
       <c r="L5" s="118" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M5" s="118"/>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B6" s="121"/>
       <c r="C6" s="121"/>
       <c r="D6" s="121"/>
       <c r="E6" s="121" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F6" s="122" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G6" s="121"/>
       <c r="H6" s="121"/>
@@ -4079,36 +4049,36 @@
       <c r="J6" s="121"/>
       <c r="K6" s="121"/>
       <c r="L6" s="121" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M6" s="121"/>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="123"/>
       <c r="D7" s="123"/>
       <c r="E7" s="123" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F7" s="125" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G7" s="125" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H7" s="124">
         <v>37</v>
       </c>
       <c r="I7" s="125" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J7" s="123"/>
       <c r="K7" s="123"/>
       <c r="L7" s="123" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4163,7 +4133,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4202,31 +4172,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>9</v>
@@ -4234,22 +4204,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F2" s="89" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G2" s="89">
         <v>326</v>
@@ -4258,33 +4228,33 @@
         <v>5957</v>
       </c>
       <c r="I2" s="89" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J2" s="89">
         <v>2009</v>
       </c>
       <c r="K2" s="89" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D3" s="88" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G3" s="88">
         <v>231</v>
@@ -4293,27 +4263,27 @@
         <v>1</v>
       </c>
       <c r="I3" s="88" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="J3" s="88">
         <v>1990</v>
       </c>
       <c r="K3" s="88" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="116" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E4" s="116"/>
       <c r="F4" s="116"/>
@@ -4327,22 +4297,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="126" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B5" s="126" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D5" s="126" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F5" s="126" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G5" s="126">
         <v>5</v>
@@ -4351,33 +4321,33 @@
         <v>12</v>
       </c>
       <c r="I5" s="126" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J5" s="126">
         <v>2006</v>
       </c>
       <c r="K5" s="126" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="127" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D6" s="127" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G6" s="127">
         <v>7</v>
@@ -4390,24 +4360,24 @@
         <v>2011</v>
       </c>
       <c r="K6" s="127" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C7" s="128" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E7" s="128" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F7" s="128"/>
       <c r="G7" s="128"/>
@@ -4420,19 +4390,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="129" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B8" s="129" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C8" s="129" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D8" s="129" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E8" s="129" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F8" s="129"/>
       <c r="G8" s="129"/>
@@ -4458,7 +4428,7 @@
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,11 +4451,11 @@
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>9</v>
@@ -4495,26 +4465,26 @@
     </row>
     <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4532,7 +4502,7 @@
   <dimension ref="A1:I776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4553,22 +4523,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>24</v>
-      </c>
       <c r="G1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>14</v>
       </c>
       <c r="I1" s="37" t="s">
         <v>9</v>
@@ -4576,13 +4546,13 @@
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="22" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -4591,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -6932,7 +6902,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6956,31 +6926,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="70" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="71" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="74" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="74" t="s">
         <v>9</v>
@@ -6988,16 +6958,16 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="77">
         <v>278</v>
@@ -7226,34 +7196,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>47</v>
-      </c>
       <c r="K1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="44" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>14</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>9</v>
@@ -7261,19 +7231,19 @@
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="82">
         <v>-35</v>
@@ -7288,11 +7258,11 @@
         <v>1900</v>
       </c>
       <c r="J2" s="83" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K2" s="81"/>
       <c r="L2" s="83" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M2" s="81"/>
     </row>
@@ -7309,13 +7279,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN2"/>
+  <dimension ref="A1:AMM2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7323,24 +7293,22 @@
     <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="39" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="6" customWidth="1"/>
+    <col min="4" max="6" width="10.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="67" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="65" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9" style="67" customWidth="1"/>
-    <col min="18" max="1028" width="33" style="65" customWidth="1"/>
-    <col min="1029" max="1035" width="9" style="67" customWidth="1"/>
-    <col min="1036" max="16384" width="9" style="67"/>
+    <col min="9" max="10" width="10.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="67" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="65" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9" style="67" customWidth="1"/>
+    <col min="17" max="1027" width="33" style="65" customWidth="1"/>
+    <col min="1028" max="1034" width="9" style="67" customWidth="1"/>
+    <col min="1035" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1028" s="21" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1027" s="21" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -7348,97 +7316,92 @@
         <v>1</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="G1" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>30</v>
-      </c>
       <c r="I1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="21" t="s">
+      <c r="M1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="44" t="s">
         <v>9</v>
       </c>
+      <c r="AMH1" s="32"/>
       <c r="AMI1" s="32"/>
       <c r="AMJ1" s="32"/>
       <c r="AMK1" s="32"/>
       <c r="AML1" s="32"/>
       <c r="AMM1" s="32"/>
-      <c r="AMN1" s="32"/>
-    </row>
-    <row r="2" spans="1:1028" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1027" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="86"/>
+        <v>48</v>
+      </c>
+      <c r="F2" s="109"/>
       <c r="G2" s="86" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="I2" s="86">
+        <v>692</v>
       </c>
       <c r="J2" s="86">
-        <v>692</v>
-      </c>
-      <c r="K2" s="86">
         <v>1834</v>
       </c>
-      <c r="L2" s="86" t="b">
+      <c r="K2" s="86" t="b">
         <v>1</v>
       </c>
+      <c r="L2" s="86" t="s">
+        <v>57</v>
+      </c>
       <c r="M2" s="86" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N2" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="85"/>
+        <v>37</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="84"/>
       <c r="Q2" s="84"/>
       <c r="R2" s="84"/>
       <c r="S2" s="84"/>
@@ -8450,10 +8413,9 @@
       <c r="AMK2" s="84"/>
       <c r="AML2" s="84"/>
       <c r="AMM2" s="84"/>
-      <c r="AMN2" s="84"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:K1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -8494,22 +8456,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="46" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>14</v>
       </c>
       <c r="I1" s="46" t="s">
         <v>9</v>
@@ -8517,25 +8479,25 @@
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="94" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>71</v>
       </c>
       <c r="H2" s="92"/>
       <c r="I2" s="92"/>
@@ -8552,10 +8514,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM2"/>
+  <dimension ref="A1:AML2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8563,18 +8525,18 @@
     <col min="1" max="3" width="20.7109375" style="27" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="27" customWidth="1"/>
     <col min="5" max="6" width="20.7109375" style="27" customWidth="1"/>
-    <col min="7" max="9" width="15.7109375" style="27" customWidth="1"/>
-    <col min="10" max="11" width="20.7109375" style="27" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="60" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" style="61" customWidth="1"/>
-    <col min="15" max="15" width="9" style="60" customWidth="1"/>
-    <col min="16" max="1025" width="9.140625" style="61" customWidth="1"/>
-    <col min="1026" max="1028" width="9.140625" style="60" customWidth="1"/>
-    <col min="1029" max="1039" width="9" style="60" customWidth="1"/>
-    <col min="1040" max="16384" width="9" style="60"/>
+    <col min="7" max="8" width="15.7109375" style="27" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="27" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="60" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="61" customWidth="1"/>
+    <col min="14" max="14" width="9" style="60" customWidth="1"/>
+    <col min="15" max="1024" width="9.140625" style="61" customWidth="1"/>
+    <col min="1025" max="1027" width="9.140625" style="60" customWidth="1"/>
+    <col min="1028" max="1038" width="9" style="60" customWidth="1"/>
+    <col min="1039" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14 1026:1027" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13 1025:1026" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -8582,60 +8544,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H1" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="L1" s="53" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="53" t="s">
         <v>9</v>
       </c>
+      <c r="AMK1" s="64"/>
       <c r="AML1" s="64"/>
-      <c r="AMM1" s="64"/>
-    </row>
-    <row r="2" spans="1:14 1026:1027" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13 1025:1026" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" s="99"/>
-      <c r="D2" s="101" t="s">
-        <v>52</v>
-      </c>
+      <c r="D2" s="101"/>
       <c r="E2" s="101" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G2" s="101">
         <v>652</v>
@@ -8643,23 +8600,20 @@
       <c r="H2" s="101">
         <v>1249</v>
       </c>
-      <c r="I2" s="101" t="s">
-        <v>40</v>
+      <c r="I2" s="99" t="s">
+        <v>71</v>
       </c>
       <c r="J2" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="99" t="s">
-        <v>77</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="K2" s="99"/>
       <c r="L2" s="99"/>
       <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="AMK2" s="99"/>
       <c r="AML2" s="99"/>
-      <c r="AMM2" s="99"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:J1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
